--- a/SonarLysaFX/src/resources/Suivi_Quality_GateTest.xlsx
+++ b/SonarLysaFX/src/resources/Suivi_Quality_GateTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="22245" windowHeight="11280"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="22245" windowHeight="11280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Anomalies closes" sheetId="38" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Anomalies closes'!$A$1:$O$34</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:T36"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="614">
   <si>
     <t>Edition</t>
   </si>
@@ -1249,9 +1249,6 @@
   </si>
   <si>
     <t>Lot 241392</t>
-  </si>
-  <si>
-    <t>Lot 242634</t>
   </si>
   <si>
     <t>Lot 244706</t>
@@ -3277,7 +3274,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="502">
+  <cellXfs count="503">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4780,6 +4777,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="43" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="40" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5139,7 +5139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -5184,7 +5184,7 @@
         <v>142</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>143</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>144</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>145</v>
       </c>
       <c r="N1" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>490</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -5252,10 +5252,10 @@
         <v>222</v>
       </c>
       <c r="N2" s="66" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O2" s="66" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -5297,10 +5297,10 @@
         <v>203</v>
       </c>
       <c r="N3" s="70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O3" s="70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -5341,13 +5341,13 @@
         <v>314</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N4" s="68" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O4" s="68" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -5389,10 +5389,10 @@
         <v>238</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -5431,13 +5431,13 @@
         <v>314</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -5478,13 +5478,13 @@
         <v>314</v>
       </c>
       <c r="M7" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N7" s="72" t="s">
+        <v>529</v>
+      </c>
+      <c r="O7" s="72" t="s">
         <v>530</v>
-      </c>
-      <c r="O7" s="72" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -5526,10 +5526,10 @@
         <v>254</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5571,10 +5571,10 @@
         <v>162</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5616,10 +5616,10 @@
         <v>180</v>
       </c>
       <c r="N10" s="74" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O10" s="74" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5660,33 +5660,33 @@
         <v>315</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N11" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>47</v>
@@ -5707,13 +5707,13 @@
         <v>315</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5755,10 +5755,10 @@
         <v>155</v>
       </c>
       <c r="N13" s="73" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O13" s="73" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5800,10 +5800,10 @@
         <v>247</v>
       </c>
       <c r="N14" s="42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O14" s="42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5847,10 +5847,10 @@
         <v>328</v>
       </c>
       <c r="N15" s="46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O15" s="46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5891,13 +5891,13 @@
         <v>314</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N16" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5939,10 +5939,10 @@
         <v>218</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5984,10 +5984,10 @@
         <v>155</v>
       </c>
       <c r="N18" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O18" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6029,10 +6029,10 @@
         <v>155</v>
       </c>
       <c r="N19" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O19" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6076,10 +6076,10 @@
         <v>191</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6118,39 +6118,39 @@
         <v>315</v>
       </c>
       <c r="M21" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N21" s="75" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O21" s="75" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I22" s="44" t="s">
         <v>267</v>
@@ -6166,10 +6166,10 @@
         <v>268</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O22" s="44" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6211,10 +6211,10 @@
         <v>243</v>
       </c>
       <c r="N23" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6258,33 +6258,33 @@
         <v>318</v>
       </c>
       <c r="N24" s="32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O24" s="32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H25" s="55" t="s">
         <v>401</v>
@@ -6303,10 +6303,10 @@
         <v>398</v>
       </c>
       <c r="N25" s="55" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O25" s="55" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6347,13 +6347,13 @@
         <v>314</v>
       </c>
       <c r="M26" s="47" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N26" s="49" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O26" s="49" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6394,33 +6394,33 @@
         <v>314</v>
       </c>
       <c r="M27" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N27" s="50" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O27" s="50" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F28" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G28" s="63" t="s">
         <v>57</v>
@@ -6441,13 +6441,13 @@
         <v>314</v>
       </c>
       <c r="M28" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N28" s="69" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O28" s="69" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="29" spans="1:16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6486,36 +6486,36 @@
         <v>314</v>
       </c>
       <c r="M29" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N29" s="67" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O29" s="67" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F30" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H30" s="57" t="s">
         <v>403</v>
@@ -6534,10 +6534,10 @@
         <v>393</v>
       </c>
       <c r="N30" s="57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O30" s="57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6578,27 +6578,27 @@
         <v>314</v>
       </c>
       <c r="M31" s="54" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N31" s="51" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O31" s="51" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D32" s="56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E32" s="56" t="s">
         <v>382</v>
@@ -6626,39 +6626,39 @@
         <v>384</v>
       </c>
       <c r="N32" s="53" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O32" s="53" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E33" s="58" t="s">
         <v>90</v>
       </c>
       <c r="F33" s="58" t="s">
+        <v>527</v>
+      </c>
+      <c r="G33" s="58" t="s">
         <v>528</v>
       </c>
-      <c r="G33" s="58" t="s">
-        <v>529</v>
-      </c>
       <c r="H33" s="61" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J33" s="61" t="s">
         <v>334</v>
@@ -6671,39 +6671,39 @@
         <v>328</v>
       </c>
       <c r="N33" s="61" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O33" s="61" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E34" s="60" t="s">
+        <v>513</v>
+      </c>
+      <c r="F34" s="60" t="s">
         <v>514</v>
       </c>
-      <c r="F34" s="60" t="s">
+      <c r="G34" s="60" t="s">
         <v>515</v>
       </c>
-      <c r="G34" s="60" t="s">
-        <v>516</v>
-      </c>
       <c r="H34" s="59" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I34" s="59" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J34" s="59" t="s">
         <v>334</v>
@@ -6713,36 +6713,36 @@
         <v>314</v>
       </c>
       <c r="M34" s="60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N34" s="59" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O34" s="59" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C35" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D35" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E35" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F35" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G35" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H35" s="77" t="s">
         <v>397</v>
@@ -6761,33 +6761,33 @@
         <v>398</v>
       </c>
       <c r="N35" s="77" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O35" s="77" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="36" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C36" s="78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E36" s="78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F36" s="78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G36" s="78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H36" s="79" t="s">
         <v>397</v>
@@ -6806,10 +6806,10 @@
         <v>398</v>
       </c>
       <c r="N36" s="79" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O36" s="79" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6817,28 +6817,28 @@
         <v>195</v>
       </c>
       <c r="B37" s="80" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C37" s="80" t="s">
         <v>195</v>
       </c>
       <c r="D37" s="80" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E37" s="80" t="s">
+        <v>559</v>
+      </c>
+      <c r="F37" s="80" t="s">
         <v>560</v>
       </c>
-      <c r="F37" s="80" t="s">
+      <c r="G37" s="80" t="s">
         <v>561</v>
       </c>
-      <c r="G37" s="80" t="s">
-        <v>562</v>
-      </c>
       <c r="H37" s="81" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I37" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J37" s="81" t="s">
         <v>334</v>
@@ -6851,10 +6851,10 @@
         <v>328</v>
       </c>
       <c r="N37" s="81" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O37" s="81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6898,10 +6898,10 @@
         <v>328</v>
       </c>
       <c r="N38" s="83" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O38" s="83" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6942,13 +6942,13 @@
         <v>314</v>
       </c>
       <c r="M39" s="84" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N39" s="85" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O39" s="85" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6962,22 +6962,22 @@
         <v>195</v>
       </c>
       <c r="D40" s="86" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E40" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="F40" s="86" t="s">
         <v>480</v>
       </c>
-      <c r="F40" s="86" t="s">
+      <c r="G40" s="86" t="s">
         <v>481</v>
-      </c>
-      <c r="G40" s="86" t="s">
-        <v>482</v>
       </c>
       <c r="H40" s="87" t="s">
         <v>401</v>
       </c>
       <c r="I40" s="87" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J40" s="87" t="s">
         <v>329</v>
@@ -6989,10 +6989,10 @@
         <v>314</v>
       </c>
       <c r="M40" s="86" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O40" s="87" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -7006,13 +7006,13 @@
         <v>151</v>
       </c>
       <c r="D41" s="88" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E41" s="88" t="s">
+        <v>552</v>
+      </c>
+      <c r="F41" s="88" t="s">
         <v>553</v>
-      </c>
-      <c r="F41" s="88" t="s">
-        <v>554</v>
       </c>
       <c r="G41" s="88" t="s">
         <v>287</v>
@@ -7021,7 +7021,7 @@
         <v>392</v>
       </c>
       <c r="I41" s="89" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J41" s="89" t="s">
         <v>313</v>
@@ -7033,13 +7033,13 @@
         <v>314</v>
       </c>
       <c r="M41" s="89" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N41" s="88" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O41" s="89" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -7080,11 +7080,11 @@
         <v>314</v>
       </c>
       <c r="M42" s="472" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N42" s="237"/>
       <c r="O42" s="236" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -7123,11 +7123,11 @@
         <v>314</v>
       </c>
       <c r="M43" s="472" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N43" s="276"/>
       <c r="O43" s="275" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="44" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -7166,11 +7166,11 @@
         <v>314</v>
       </c>
       <c r="M44" s="472" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N44" s="279"/>
       <c r="O44" s="278" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="45" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="N45" s="285"/>
       <c r="O45" s="284" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -7223,7 +7223,7 @@
         <v>195</v>
       </c>
       <c r="B46" s="295" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C46" s="295" t="s">
         <v>195</v>
@@ -7256,11 +7256,11 @@
         <v>314</v>
       </c>
       <c r="M46" s="472" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N46" s="297"/>
       <c r="O46" s="296" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="47" spans="1:16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7268,7 +7268,7 @@
         <v>195</v>
       </c>
       <c r="B47" s="298" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C47" s="298" t="s">
         <v>195</v>
@@ -7299,11 +7299,11 @@
         <v>314</v>
       </c>
       <c r="M47" s="472" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N47" s="300"/>
       <c r="O47" s="299" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -7348,7 +7348,7 @@
       </c>
       <c r="N48" s="309"/>
       <c r="O48" s="308" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -7389,22 +7389,22 @@
         <v>315</v>
       </c>
       <c r="M49" s="472" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N49" s="312"/>
       <c r="O49" s="311" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="313" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B50" s="313" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C50" s="313" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D50" s="313" t="s">
         <v>233</v>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="N50" s="315"/>
       <c r="O50" s="314" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7477,11 +7477,11 @@
         <v>314</v>
       </c>
       <c r="M51" s="472" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N51" s="330"/>
       <c r="O51" s="329" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="52" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7613,15 +7613,15 @@
         <v>0</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="91" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B2" s="92" t="s">
         <v>24</v>
@@ -7630,12 +7630,12 @@
         <v>313</v>
       </c>
       <c r="D2" s="91" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B3" s="94" t="s">
         <v>24</v>
@@ -7644,26 +7644,26 @@
         <v>406</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>463</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>464</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>313</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="97" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B5" s="98" t="s">
         <v>24</v>
@@ -7672,12 +7672,12 @@
         <v>313</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B6" s="100" t="s">
         <v>24</v>
@@ -7686,12 +7686,12 @@
         <v>406</v>
       </c>
       <c r="D6" s="99" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="101" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B7" s="102" t="s">
         <v>24</v>
@@ -7700,12 +7700,12 @@
         <v>406</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="103" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B8" s="104" t="s">
         <v>24</v>
@@ -7714,26 +7714,26 @@
         <v>406</v>
       </c>
       <c r="D8" s="103" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="B9" s="106" t="s">
         <v>468</v>
-      </c>
-      <c r="B9" s="106" t="s">
-        <v>469</v>
       </c>
       <c r="C9" s="105" t="s">
         <v>313</v>
       </c>
       <c r="D9" s="105" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="107" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B10" s="108" t="s">
         <v>24</v>
@@ -7742,26 +7742,26 @@
         <v>313</v>
       </c>
       <c r="D10" s="107" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="109" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="110" t="s">
         <v>471</v>
-      </c>
-      <c r="B11" s="110" t="s">
-        <v>472</v>
       </c>
       <c r="C11" s="109" t="s">
         <v>313</v>
       </c>
       <c r="D11" s="109" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="111" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B12" s="112" t="s">
         <v>24</v>
@@ -7770,7 +7770,7 @@
         <v>313</v>
       </c>
       <c r="D12" s="111" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -7778,13 +7778,13 @@
         <v>385</v>
       </c>
       <c r="B13" s="114" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C13" s="113" t="s">
         <v>329</v>
       </c>
       <c r="D13" s="113" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -7796,8 +7796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7815,10 +7815,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="115" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D1" s="115" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7832,7 +7832,7 @@
         <v>406</v>
       </c>
       <c r="D2" s="116" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7846,12 +7846,12 @@
         <v>406</v>
       </c>
       <c r="D3" s="118" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
-        <v>409</v>
+      <c r="A4" s="502">
+        <v>242634</v>
       </c>
       <c r="B4" s="121" t="s">
         <v>18</v>
@@ -7860,12 +7860,12 @@
         <v>406</v>
       </c>
       <c r="D4" s="120" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="122" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B5" s="123" t="s">
         <v>18</v>
@@ -7873,13 +7873,13 @@
       <c r="C5" s="122" t="s">
         <v>313</v>
       </c>
-      <c r="D5" s="122" t="s">
-        <v>474</v>
+      <c r="D5" s="502">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="124" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B6" s="125" t="s">
         <v>18</v>
@@ -7888,12 +7888,12 @@
         <v>406</v>
       </c>
       <c r="D6" s="124" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="126" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B7" s="127" t="s">
         <v>18</v>
@@ -7902,12 +7902,12 @@
         <v>406</v>
       </c>
       <c r="D7" s="126" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="128" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B8" s="129" t="s">
         <v>18</v>
@@ -7916,26 +7916,26 @@
         <v>406</v>
       </c>
       <c r="D8" s="128" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="130" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B9" s="131" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C9" s="130" t="s">
         <v>406</v>
       </c>
       <c r="D9" s="130" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="132" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B10" s="133" t="s">
         <v>18</v>
@@ -7944,40 +7944,40 @@
         <v>406</v>
       </c>
       <c r="D10" s="132" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="134" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B11" s="135" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C11" s="134" t="s">
         <v>313</v>
       </c>
       <c r="D11" s="134" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="136" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="137" t="s">
         <v>418</v>
-      </c>
-      <c r="B12" s="137" t="s">
-        <v>419</v>
       </c>
       <c r="C12" s="136" t="s">
         <v>406</v>
       </c>
       <c r="D12" s="136" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="138" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B13" s="139" t="s">
         <v>34</v>
@@ -7986,12 +7986,12 @@
         <v>406</v>
       </c>
       <c r="D13" s="138" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="140" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B14" s="141" t="s">
         <v>34</v>
@@ -8000,12 +8000,12 @@
         <v>406</v>
       </c>
       <c r="D14" s="140" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="142" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B15" s="143" t="s">
         <v>392</v>
@@ -8014,54 +8014,54 @@
         <v>313</v>
       </c>
       <c r="D15" s="142" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="144" t="s">
+        <v>422</v>
+      </c>
+      <c r="B16" s="145" t="s">
         <v>423</v>
-      </c>
-      <c r="B16" s="145" t="s">
-        <v>424</v>
       </c>
       <c r="C16" s="144" t="s">
         <v>406</v>
       </c>
       <c r="D16" s="144" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="146" t="s">
+        <v>424</v>
+      </c>
+      <c r="B17" s="147" t="s">
         <v>425</v>
-      </c>
-      <c r="B17" s="147" t="s">
-        <v>426</v>
       </c>
       <c r="C17" s="146" t="s">
         <v>406</v>
       </c>
       <c r="D17" s="146" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="148" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B18" s="149" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C18" s="148" t="s">
         <v>313</v>
       </c>
       <c r="D18" s="148" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="150" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B19" s="151" t="s">
         <v>34</v>
@@ -8070,12 +8070,12 @@
         <v>313</v>
       </c>
       <c r="D19" s="150" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B20" s="153" t="s">
         <v>392</v>
@@ -8084,12 +8084,12 @@
         <v>313</v>
       </c>
       <c r="D20" s="152" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="154" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B21" s="155" t="s">
         <v>34</v>
@@ -8098,138 +8098,138 @@
         <v>313</v>
       </c>
       <c r="D21" s="154" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="156" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B22" s="157" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C22" s="156" t="s">
         <v>406</v>
       </c>
       <c r="D22" s="156" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="158" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B23" s="159" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C23" s="158" t="s">
         <v>313</v>
       </c>
       <c r="D23" s="158" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="160" t="s">
+        <v>432</v>
+      </c>
+      <c r="B24" s="161" t="s">
         <v>433</v>
-      </c>
-      <c r="B24" s="161" t="s">
-        <v>434</v>
       </c>
       <c r="C24" s="160" t="s">
         <v>406</v>
       </c>
       <c r="D24" s="160" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="162" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B25" s="163" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C25" s="162" t="s">
         <v>313</v>
       </c>
       <c r="D25" s="162" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="164" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B26" s="165" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C26" s="164" t="s">
         <v>406</v>
       </c>
       <c r="D26" s="164" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="166" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B27" s="167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C27" s="166" t="s">
         <v>406</v>
       </c>
       <c r="D27" s="166" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="168" t="s">
+        <v>437</v>
+      </c>
+      <c r="B28" s="169" t="s">
         <v>438</v>
-      </c>
-      <c r="B28" s="169" t="s">
-        <v>439</v>
       </c>
       <c r="C28" s="168" t="s">
         <v>406</v>
       </c>
       <c r="D28" s="168" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="170" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B29" s="171" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C29" s="170" t="s">
         <v>406</v>
       </c>
       <c r="D29" s="170" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="172" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B30" s="173" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C30" s="172" t="s">
         <v>313</v>
       </c>
       <c r="D30" s="172" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="174" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B31" s="175" t="s">
         <v>337</v>
@@ -8238,12 +8238,12 @@
         <v>406</v>
       </c>
       <c r="D31" s="174" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="176" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B32" s="177" t="s">
         <v>337</v>
@@ -8252,40 +8252,40 @@
         <v>406</v>
       </c>
       <c r="D32" s="176" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="178" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B33" s="179" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C33" s="178" t="s">
         <v>313</v>
       </c>
       <c r="D33" s="178" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="180" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B34" s="181" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C34" s="180" t="s">
         <v>313</v>
       </c>
       <c r="D34" s="180" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="182" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B35" s="183" t="s">
         <v>337</v>
@@ -8294,26 +8294,26 @@
         <v>406</v>
       </c>
       <c r="D35" s="182" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="184" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B36" s="185" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C36" s="184" t="s">
         <v>313</v>
       </c>
       <c r="D36" s="184" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="186" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B37" s="187" t="s">
         <v>337</v>
@@ -8322,12 +8322,12 @@
         <v>313</v>
       </c>
       <c r="D37" s="186" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="188" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B38" s="189" t="s">
         <v>403</v>
@@ -8336,12 +8336,12 @@
         <v>313</v>
       </c>
       <c r="D38" s="188" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="190" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B39" s="191" t="s">
         <v>337</v>
@@ -8350,12 +8350,12 @@
         <v>313</v>
       </c>
       <c r="D39" s="190" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="192" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B40" s="193" t="s">
         <v>337</v>
@@ -8364,12 +8364,12 @@
         <v>406</v>
       </c>
       <c r="D40" s="192" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="194" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B41" s="195" t="s">
         <v>337</v>
@@ -8378,12 +8378,12 @@
         <v>313</v>
       </c>
       <c r="D41" s="194" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="196" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B42" s="197" t="s">
         <v>337</v>
@@ -8392,12 +8392,12 @@
         <v>313</v>
       </c>
       <c r="D42" s="196" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="198" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B43" s="199" t="s">
         <v>337</v>
@@ -8406,12 +8406,12 @@
         <v>406</v>
       </c>
       <c r="D43" s="198" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="200" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B44" s="201" t="s">
         <v>337</v>
@@ -8420,12 +8420,12 @@
         <v>313</v>
       </c>
       <c r="D44" s="200" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="202" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B45" s="203" t="s">
         <v>337</v>
@@ -8434,12 +8434,12 @@
         <v>313</v>
       </c>
       <c r="D45" s="202" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="204" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B46" s="205" t="s">
         <v>337</v>
@@ -8448,26 +8448,26 @@
         <v>313</v>
       </c>
       <c r="D46" s="204" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="206" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B47" s="207" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C47" s="206" t="s">
         <v>406</v>
       </c>
       <c r="D47" s="206" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="208" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B48" s="209" t="s">
         <v>337</v>
@@ -8476,26 +8476,26 @@
         <v>406</v>
       </c>
       <c r="D48" s="208" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="210" t="s">
+        <v>458</v>
+      </c>
+      <c r="B49" s="211" t="s">
         <v>459</v>
-      </c>
-      <c r="B49" s="211" t="s">
-        <v>460</v>
       </c>
       <c r="C49" s="210" t="s">
         <v>313</v>
       </c>
       <c r="D49" s="210" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="212" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B50" s="213" t="s">
         <v>401</v>
@@ -8504,25 +8504,26 @@
         <v>329</v>
       </c>
       <c r="D50" s="212" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="210" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B51" s="472" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C51" s="210" t="s">
         <v>313</v>
       </c>
       <c r="D51" s="210" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8547,10 +8548,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="214" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D1" s="214" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -8608,7 +8609,7 @@
         <v>142</v>
       </c>
       <c r="G1" s="221" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1" s="222" t="s">
         <v>0</v>
@@ -8617,34 +8618,34 @@
         <v>143</v>
       </c>
       <c r="J1" s="224" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K1" s="225" t="s">
         <v>144</v>
       </c>
       <c r="L1" s="231" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M1" s="226" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N1" s="227" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O1" s="228" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P1" s="229" t="s">
         <v>145</v>
       </c>
       <c r="Q1" s="230" t="s">
+        <v>489</v>
+      </c>
+      <c r="R1" s="231" t="s">
         <v>490</v>
       </c>
-      <c r="R1" s="231" t="s">
-        <v>491</v>
-      </c>
       <c r="S1" s="231" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -8690,13 +8691,13 @@
         <v>43158</v>
       </c>
       <c r="P2" s="232" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Q2" s="233" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R2" s="233" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -8742,13 +8743,13 @@
         <v>43165</v>
       </c>
       <c r="P3" s="238" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q3" s="239" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R3" s="239" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -8795,10 +8796,10 @@
         <v>155</v>
       </c>
       <c r="Q4" s="242" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R4" s="242" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -8847,10 +8848,10 @@
         <v>155</v>
       </c>
       <c r="Q5" s="245" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R5" s="245" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -8899,10 +8900,10 @@
         <v>167</v>
       </c>
       <c r="Q6" s="248" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R6" s="248" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -8949,10 +8950,10 @@
         <v>155</v>
       </c>
       <c r="Q7" s="251" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R7" s="251" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -9001,10 +9002,10 @@
         <v>317</v>
       </c>
       <c r="Q8" s="254" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R8" s="254" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -9051,21 +9052,21 @@
         <v>155</v>
       </c>
       <c r="Q9" s="257" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R9" s="257" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="259" t="s">
+        <v>583</v>
+      </c>
+      <c r="B10" s="259" t="s">
         <v>584</v>
       </c>
-      <c r="B10" s="259" t="s">
-        <v>585</v>
-      </c>
       <c r="C10" s="259" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D10" s="259" t="s">
         <v>178</v>
@@ -9098,13 +9099,13 @@
       </c>
       <c r="O10" s="261"/>
       <c r="P10" s="259" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q10" s="260" t="s">
+        <v>529</v>
+      </c>
+      <c r="R10" s="260" t="s">
         <v>530</v>
-      </c>
-      <c r="R10" s="260" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -9150,13 +9151,13 @@
         <v>43165</v>
       </c>
       <c r="P11" s="262" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q11" s="263" t="s">
+        <v>529</v>
+      </c>
+      <c r="R11" s="263" t="s">
         <v>530</v>
-      </c>
-      <c r="R11" s="263" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -9203,10 +9204,10 @@
         <v>194</v>
       </c>
       <c r="Q12" s="266" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R12" s="266" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -9253,10 +9254,10 @@
         <v>319</v>
       </c>
       <c r="Q13" s="269" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R13" s="269" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -9303,10 +9304,10 @@
         <v>207</v>
       </c>
       <c r="Q14" s="272" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R14" s="272" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -9350,13 +9351,13 @@
         <v>43165</v>
       </c>
       <c r="P15" s="280" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q15" s="281" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R15" s="281" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -9364,7 +9365,7 @@
         <v>195</v>
       </c>
       <c r="B16" s="286" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C16" s="286" t="s">
         <v>195</v>
@@ -9403,10 +9404,10 @@
         <v>216</v>
       </c>
       <c r="Q16" s="287" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R16" s="287" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -9414,7 +9415,7 @@
         <v>195</v>
       </c>
       <c r="B17" s="289" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C17" s="289" t="s">
         <v>195</v>
@@ -9453,10 +9454,10 @@
         <v>218</v>
       </c>
       <c r="Q17" s="290" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R17" s="290" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -9464,7 +9465,7 @@
         <v>195</v>
       </c>
       <c r="B18" s="292" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C18" s="292" t="s">
         <v>195</v>
@@ -9503,10 +9504,10 @@
         <v>323</v>
       </c>
       <c r="Q18" s="293" t="s">
+        <v>529</v>
+      </c>
+      <c r="R18" s="293" t="s">
         <v>530</v>
-      </c>
-      <c r="R18" s="293" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -9514,7 +9515,7 @@
         <v>195</v>
       </c>
       <c r="B19" s="301" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C19" s="301" t="s">
         <v>195</v>
@@ -9555,21 +9556,21 @@
         <v>155</v>
       </c>
       <c r="Q19" s="302" t="s">
+        <v>529</v>
+      </c>
+      <c r="R19" s="302" t="s">
         <v>530</v>
-      </c>
-      <c r="R19" s="302" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="304" t="s">
+        <v>583</v>
+      </c>
+      <c r="B20" s="304" t="s">
         <v>584</v>
       </c>
-      <c r="B20" s="304" t="s">
-        <v>585</v>
-      </c>
       <c r="C20" s="304" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D20" s="304" t="s">
         <v>224</v>
@@ -9603,10 +9604,10 @@
         <v>194</v>
       </c>
       <c r="Q20" s="305" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R20" s="305" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -9655,10 +9656,10 @@
         <v>155</v>
       </c>
       <c r="Q21" s="317" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R21" s="317" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -9705,21 +9706,21 @@
         <v>253</v>
       </c>
       <c r="Q22" s="320" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R22" s="320" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="322" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B23" s="322" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C23" s="322" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D23" s="322" t="s">
         <v>256</v>
@@ -9755,21 +9756,21 @@
         <v>258</v>
       </c>
       <c r="Q23" s="323" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R23" s="323" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="325" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B24" s="325" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C24" s="325" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D24" s="325" t="s">
         <v>256</v>
@@ -9807,30 +9808,30 @@
         <v>258</v>
       </c>
       <c r="Q24" s="326" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R24" s="326" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="331" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B25" s="331" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C25" s="331" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D25" s="331" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E25" s="331" t="s">
         <v>299</v>
       </c>
       <c r="F25" s="331" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G25" s="331" t="s">
         <v>263</v>
@@ -9852,33 +9853,33 @@
       </c>
       <c r="O25" s="333"/>
       <c r="P25" s="331" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q25" s="332" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R25" s="332" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="334" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B26" s="334" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C26" s="334" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D26" s="334" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E26" s="334" t="s">
         <v>49</v>
       </c>
       <c r="F26" s="334" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G26" s="334" t="s">
         <v>265</v>
@@ -9898,7 +9899,7 @@
       <c r="L26" s="335"/>
       <c r="M26" s="336"/>
       <c r="N26" s="334" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O26" s="336">
         <v>43165</v>
@@ -9907,10 +9908,10 @@
         <v>326</v>
       </c>
       <c r="Q26" s="335" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R26" s="335" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -9924,13 +9925,13 @@
         <v>195</v>
       </c>
       <c r="D27" s="337" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E27" s="337" t="s">
         <v>300</v>
       </c>
       <c r="F27" s="337" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G27" s="337" t="s">
         <v>263</v>
@@ -9950,43 +9951,43 @@
       <c r="L27" s="338"/>
       <c r="M27" s="339"/>
       <c r="N27" s="337" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O27" s="339"/>
       <c r="P27" s="337" t="s">
         <v>327</v>
       </c>
       <c r="Q27" s="338" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R27" s="338" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H28" s="341" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I28" s="341" t="s">
         <v>270</v>
@@ -9998,28 +9999,28 @@
       <c r="L28" s="341"/>
       <c r="M28" s="342"/>
       <c r="N28" s="340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O28" s="342"/>
       <c r="P28" s="340" t="s">
         <v>268</v>
       </c>
       <c r="Q28" s="341" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R28" s="341" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="343" t="s">
+        <v>583</v>
+      </c>
+      <c r="B29" s="343" t="s">
         <v>584</v>
       </c>
-      <c r="B29" s="343" t="s">
-        <v>585</v>
-      </c>
       <c r="C29" s="343" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D29" s="343" t="s">
         <v>224</v>
@@ -10052,39 +10053,39 @@
       </c>
       <c r="O29" s="345"/>
       <c r="P29" s="343" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="Q29" s="344" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R29" s="344" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H30" s="347" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I30" s="347" t="s">
         <v>273</v>
@@ -10096,17 +10097,17 @@
       <c r="L30" s="347"/>
       <c r="M30" s="348"/>
       <c r="N30" s="346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O30" s="348"/>
       <c r="P30" s="346" t="s">
         <v>274</v>
       </c>
       <c r="Q30" s="347" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R30" s="347" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -10114,7 +10115,7 @@
         <v>195</v>
       </c>
       <c r="B31" s="349" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C31" s="349" t="s">
         <v>195</v>
@@ -10148,13 +10149,13 @@
       </c>
       <c r="O31" s="351"/>
       <c r="P31" s="349" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q31" s="350" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R31" s="350" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -10162,7 +10163,7 @@
         <v>195</v>
       </c>
       <c r="B32" s="352" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C32" s="352" t="s">
         <v>195</v>
@@ -10190,43 +10191,43 @@
       <c r="L32" s="353"/>
       <c r="M32" s="354"/>
       <c r="N32" s="352" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O32" s="354"/>
       <c r="P32" s="352" t="s">
         <v>281</v>
       </c>
       <c r="Q32" s="353" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R32" s="353" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H33" s="356" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I33" s="356" t="s">
         <v>51</v>
@@ -10238,43 +10239,43 @@
       <c r="L33" s="356"/>
       <c r="M33" s="357"/>
       <c r="N33" s="355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O33" s="357"/>
       <c r="P33" s="355" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Q33" s="356" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R33" s="356" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H34" s="359" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I34" s="359" t="s">
         <v>283</v>
@@ -10284,40 +10285,40 @@
       <c r="L34" s="359"/>
       <c r="M34" s="360"/>
       <c r="N34" s="358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O34" s="360"/>
       <c r="P34" s="358" t="s">
         <v>268</v>
       </c>
       <c r="Q34" s="359" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R34" s="359" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H35" s="362" t="s">
         <v>260</v>
@@ -10332,17 +10333,17 @@
       <c r="L35" s="362"/>
       <c r="M35" s="363"/>
       <c r="N35" s="361" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O35" s="363"/>
       <c r="P35" s="361" t="s">
         <v>282</v>
       </c>
       <c r="Q35" s="362" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R35" s="362" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -10382,17 +10383,17 @@
       <c r="L36" s="365"/>
       <c r="M36" s="366"/>
       <c r="N36" s="364" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O36" s="366"/>
       <c r="P36" s="364" t="s">
         <v>328</v>
       </c>
       <c r="Q36" s="365" t="s">
+        <v>529</v>
+      </c>
+      <c r="R36" s="365" t="s">
         <v>530</v>
-      </c>
-      <c r="R36" s="365" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -10432,37 +10433,37 @@
       <c r="L37" s="368"/>
       <c r="M37" s="369"/>
       <c r="N37" s="367" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O37" s="369"/>
       <c r="P37" s="367" t="s">
         <v>330</v>
       </c>
       <c r="Q37" s="368" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R37" s="368" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="370" t="s">
+        <v>583</v>
+      </c>
+      <c r="B38" s="370" t="s">
         <v>584</v>
       </c>
-      <c r="B38" s="370" t="s">
-        <v>585</v>
-      </c>
       <c r="C38" s="370" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D38" s="370" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E38" s="370" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="370" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G38" s="370" t="s">
         <v>182</v>
@@ -10486,33 +10487,33 @@
       </c>
       <c r="O38" s="372"/>
       <c r="P38" s="370" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q38" s="371" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R38" s="371" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="373" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B39" s="373" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C39" s="373" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D39" s="373" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E39" s="373" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F39" s="373" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G39" s="373" t="s">
         <v>263</v>
@@ -10539,30 +10540,30 @@
         <v>331</v>
       </c>
       <c r="Q39" s="374" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R39" s="374" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="376" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B40" s="376" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C40" s="376" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D40" s="376" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E40" s="376" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F40" s="376" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G40" s="376" t="s">
         <v>295</v>
@@ -10589,10 +10590,10 @@
         <v>328</v>
       </c>
       <c r="Q40" s="377" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R40" s="377" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -10636,13 +10637,13 @@
       </c>
       <c r="O41" s="381"/>
       <c r="P41" s="379" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q41" s="380" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R41" s="380" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -10650,7 +10651,7 @@
         <v>195</v>
       </c>
       <c r="B42" s="382" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C42" s="382" t="s">
         <v>195</v>
@@ -10686,13 +10687,13 @@
       </c>
       <c r="O42" s="384"/>
       <c r="P42" s="382" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q42" s="383" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R42" s="383" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -10736,13 +10737,13 @@
       </c>
       <c r="O43" s="387"/>
       <c r="P43" s="385" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q43" s="386" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R43" s="386" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -10756,13 +10757,13 @@
         <v>151</v>
       </c>
       <c r="D44" s="388" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E44" s="388" t="s">
         <v>35</v>
       </c>
       <c r="F44" s="388" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G44" s="388" t="s">
         <v>64</v>
@@ -10786,33 +10787,33 @@
       </c>
       <c r="O44" s="390"/>
       <c r="P44" s="388" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q44" s="389" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R44" s="389" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="391" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B45" s="391" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C45" s="391" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D45" s="391" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E45" s="391" t="s">
         <v>357</v>
       </c>
       <c r="F45" s="391" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G45" s="391" t="s">
         <v>358</v>
@@ -10836,33 +10837,33 @@
       </c>
       <c r="O45" s="393"/>
       <c r="P45" s="391" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q45" s="392" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R45" s="392" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B46" s="394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C46" s="394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D46" s="394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E46" s="394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F46" s="394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G46" s="394" t="s">
         <v>359</v>
@@ -10886,33 +10887,33 @@
       </c>
       <c r="O46" s="396"/>
       <c r="P46" s="394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q46" s="395" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R46" s="395" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="397" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B47" s="397" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C47" s="397" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D47" s="397" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E47" s="397" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F47" s="397" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G47" s="397" t="s">
         <v>360</v>
@@ -10936,13 +10937,13 @@
       </c>
       <c r="O47" s="399"/>
       <c r="P47" s="397" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q47" s="398" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R47" s="398" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -10986,13 +10987,13 @@
       </c>
       <c r="O48" s="402"/>
       <c r="P48" s="400" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q48" s="401" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R48" s="401" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -11006,7 +11007,7 @@
         <v>380</v>
       </c>
       <c r="D49" s="403" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E49" s="403" t="s">
         <v>364</v>
@@ -11036,13 +11037,13 @@
       </c>
       <c r="O49" s="405"/>
       <c r="P49" s="403" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q49" s="404" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R49" s="404" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -11086,13 +11087,13 @@
       </c>
       <c r="O50" s="408"/>
       <c r="P50" s="406" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q50" s="407" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R50" s="407" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -11106,13 +11107,13 @@
         <v>146</v>
       </c>
       <c r="D51" s="409" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E51" s="409" t="s">
         <v>367</v>
       </c>
       <c r="F51" s="409" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G51" s="409" t="s">
         <v>366</v>
@@ -11130,17 +11131,17 @@
       <c r="L51" s="410"/>
       <c r="M51" s="411"/>
       <c r="N51" s="409" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O51" s="411"/>
       <c r="P51" s="409" t="s">
         <v>368</v>
       </c>
       <c r="Q51" s="410" t="s">
+        <v>529</v>
+      </c>
+      <c r="R51" s="410" t="s">
         <v>530</v>
-      </c>
-      <c r="R51" s="410" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -11184,36 +11185,36 @@
       </c>
       <c r="O52" s="414"/>
       <c r="P52" s="412" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q52" s="413" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R52" s="413" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H53" s="416" t="s">
         <v>392</v>
@@ -11228,40 +11229,40 @@
       <c r="L53" s="416"/>
       <c r="M53" s="417"/>
       <c r="N53" s="415" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O53" s="417"/>
       <c r="P53" s="415" t="s">
         <v>393</v>
       </c>
       <c r="Q53" s="416" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R53" s="416" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H54" s="419" t="s">
         <v>18</v>
@@ -11276,17 +11277,17 @@
       <c r="L54" s="419"/>
       <c r="M54" s="420"/>
       <c r="N54" s="418" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O54" s="420"/>
       <c r="P54" s="418" t="s">
         <v>395</v>
       </c>
       <c r="Q54" s="419" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R54" s="419" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -11300,22 +11301,22 @@
         <v>195</v>
       </c>
       <c r="D55" s="421" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E55" s="421" t="s">
+        <v>482</v>
+      </c>
+      <c r="F55" s="421" t="s">
         <v>483</v>
       </c>
-      <c r="F55" s="421" t="s">
+      <c r="G55" s="421" t="s">
         <v>484</v>
       </c>
-      <c r="G55" s="421" t="s">
-        <v>485</v>
-      </c>
       <c r="H55" s="422" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I55" s="422" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J55" s="422" t="s">
         <v>334</v>
@@ -11324,17 +11325,17 @@
       <c r="L55" s="422"/>
       <c r="M55" s="423"/>
       <c r="N55" s="421" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O55" s="423"/>
       <c r="P55" s="421" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q55" s="422" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R55" s="422" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -11348,13 +11349,13 @@
         <v>186</v>
       </c>
       <c r="D56" s="424" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E56" s="424" t="s">
         <v>97</v>
       </c>
       <c r="F56" s="424" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G56" s="424" t="s">
         <v>371</v>
@@ -11363,7 +11364,7 @@
         <v>392</v>
       </c>
       <c r="I56" s="425" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J56" s="425" t="s">
         <v>329</v>
@@ -11378,13 +11379,13 @@
       </c>
       <c r="O56" s="426"/>
       <c r="P56" s="424" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q56" s="425" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R56" s="425" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -11392,28 +11393,28 @@
         <v>255</v>
       </c>
       <c r="B57" s="427" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C57" s="427" t="s">
         <v>255</v>
       </c>
       <c r="D57" s="427" t="s">
+        <v>506</v>
+      </c>
+      <c r="E57" s="427" t="s">
         <v>507</v>
       </c>
-      <c r="E57" s="427" t="s">
+      <c r="F57" s="427" t="s">
         <v>508</v>
       </c>
-      <c r="F57" s="427" t="s">
+      <c r="G57" s="427" t="s">
         <v>509</v>
       </c>
-      <c r="G57" s="427" t="s">
-        <v>510</v>
-      </c>
       <c r="H57" s="428" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I57" s="428" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J57" s="428" t="s">
         <v>406</v>
@@ -11422,17 +11423,17 @@
       <c r="L57" s="428"/>
       <c r="M57" s="429"/>
       <c r="N57" s="427" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O57" s="429"/>
       <c r="P57" s="427" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q57" s="428" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R57" s="428" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -11446,22 +11447,22 @@
         <v>171</v>
       </c>
       <c r="D58" s="430" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E58" s="430" t="s">
+        <v>510</v>
+      </c>
+      <c r="F58" s="430" t="s">
         <v>511</v>
       </c>
-      <c r="F58" s="430" t="s">
+      <c r="G58" s="430" t="s">
         <v>512</v>
       </c>
-      <c r="G58" s="430" t="s">
-        <v>513</v>
-      </c>
       <c r="H58" s="431" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I58" s="431" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J58" s="431" t="s">
         <v>406</v>
@@ -11470,17 +11471,17 @@
       <c r="L58" s="431"/>
       <c r="M58" s="432"/>
       <c r="N58" s="430" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O58" s="432"/>
       <c r="P58" s="430" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q58" s="431" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R58" s="431" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -11488,28 +11489,28 @@
         <v>255</v>
       </c>
       <c r="B59" s="433" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C59" s="433" t="s">
         <v>255</v>
       </c>
       <c r="D59" s="433" t="s">
+        <v>506</v>
+      </c>
+      <c r="E59" s="433" t="s">
         <v>507</v>
       </c>
-      <c r="E59" s="433" t="s">
+      <c r="F59" s="433" t="s">
         <v>508</v>
       </c>
-      <c r="F59" s="433" t="s">
+      <c r="G59" s="433" t="s">
         <v>509</v>
       </c>
-      <c r="G59" s="433" t="s">
-        <v>510</v>
-      </c>
       <c r="H59" s="434" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I59" s="434" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J59" s="434" t="s">
         <v>406</v>
@@ -11518,17 +11519,17 @@
       <c r="L59" s="434"/>
       <c r="M59" s="435"/>
       <c r="N59" s="433" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O59" s="435"/>
       <c r="P59" s="433" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q59" s="434" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R59" s="434" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -11542,22 +11543,22 @@
         <v>380</v>
       </c>
       <c r="D60" s="436" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E60" s="436" t="s">
+        <v>516</v>
+      </c>
+      <c r="F60" s="436" t="s">
         <v>517</v>
       </c>
-      <c r="F60" s="436" t="s">
+      <c r="G60" s="436" t="s">
         <v>518</v>
-      </c>
-      <c r="G60" s="436" t="s">
-        <v>519</v>
       </c>
       <c r="H60" s="437" t="s">
         <v>24</v>
       </c>
       <c r="I60" s="437" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J60" s="437" t="s">
         <v>313</v>
@@ -11566,17 +11567,17 @@
       <c r="L60" s="437"/>
       <c r="M60" s="438"/>
       <c r="N60" s="436" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O60" s="438"/>
       <c r="P60" s="436" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q60" s="437" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R60" s="437" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -11590,22 +11591,22 @@
         <v>195</v>
       </c>
       <c r="D61" s="439" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E61" s="439" t="s">
+        <v>519</v>
+      </c>
+      <c r="F61" s="439" t="s">
         <v>520</v>
       </c>
-      <c r="F61" s="439" t="s">
+      <c r="G61" s="439" t="s">
         <v>521</v>
-      </c>
-      <c r="G61" s="439" t="s">
-        <v>522</v>
       </c>
       <c r="H61" s="440" t="s">
         <v>24</v>
       </c>
       <c r="I61" s="440" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J61" s="440" t="s">
         <v>313</v>
@@ -11614,17 +11615,17 @@
       <c r="L61" s="440"/>
       <c r="M61" s="441"/>
       <c r="N61" s="439" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O61" s="441"/>
       <c r="P61" s="439" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q61" s="440" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R61" s="440" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -11638,22 +11639,22 @@
         <v>151</v>
       </c>
       <c r="D62" s="442" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E62" s="442" t="s">
+        <v>522</v>
+      </c>
+      <c r="F62" s="442" t="s">
         <v>523</v>
       </c>
-      <c r="F62" s="442" t="s">
-        <v>524</v>
-      </c>
       <c r="G62" s="442" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H62" s="443" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I62" s="443" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J62" s="443" t="s">
         <v>329</v>
@@ -11668,13 +11669,13 @@
       </c>
       <c r="O62" s="444"/>
       <c r="P62" s="442" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q62" s="443" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R62" s="443" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -11688,22 +11689,22 @@
         <v>151</v>
       </c>
       <c r="D63" s="445" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E63" s="445" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F63" s="445" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G63" s="445" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H63" s="446" t="s">
+        <v>501</v>
+      </c>
+      <c r="I63" s="446" t="s">
         <v>502</v>
-      </c>
-      <c r="I63" s="446" t="s">
-        <v>503</v>
       </c>
       <c r="J63" s="446" t="s">
         <v>334</v>
@@ -11718,33 +11719,33 @@
       </c>
       <c r="O63" s="447"/>
       <c r="P63" s="445" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q63" s="446" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R63" s="446" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="448" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B64" s="448" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C64" s="448" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D64" s="448" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E64" s="448" t="s">
+        <v>525</v>
+      </c>
+      <c r="F64" s="448" t="s">
         <v>526</v>
-      </c>
-      <c r="F64" s="448" t="s">
-        <v>527</v>
       </c>
       <c r="G64" s="448" t="s">
         <v>62</v>
@@ -11753,7 +11754,7 @@
         <v>24</v>
       </c>
       <c r="I64" s="449" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J64" s="449" t="s">
         <v>329</v>
@@ -11762,17 +11763,17 @@
       <c r="L64" s="449"/>
       <c r="M64" s="450"/>
       <c r="N64" s="448" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O64" s="450"/>
       <c r="P64" s="448" t="s">
         <v>328</v>
       </c>
       <c r="Q64" s="449" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R64" s="449" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -11786,19 +11787,19 @@
         <v>151</v>
       </c>
       <c r="D65" s="451" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E65" s="451" t="s">
         <v>86</v>
       </c>
       <c r="F65" s="451" t="s">
+        <v>531</v>
+      </c>
+      <c r="G65" s="451" t="s">
         <v>532</v>
       </c>
-      <c r="G65" s="451" t="s">
-        <v>533</v>
-      </c>
       <c r="H65" s="452" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I65" s="452" t="s">
         <v>8</v>
@@ -11812,17 +11813,17 @@
       <c r="L65" s="452"/>
       <c r="M65" s="453"/>
       <c r="N65" s="451" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O65" s="453"/>
       <c r="P65" s="451" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q65" s="452" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R65" s="452" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -11836,13 +11837,13 @@
         <v>380</v>
       </c>
       <c r="D66" s="454" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E66" s="454" t="s">
         <v>297</v>
       </c>
       <c r="F66" s="454" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G66" s="454" t="s">
         <v>59</v>
@@ -11860,17 +11861,17 @@
       <c r="L66" s="455"/>
       <c r="M66" s="456"/>
       <c r="N66" s="454" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O66" s="456"/>
       <c r="P66" s="454" t="s">
         <v>328</v>
       </c>
       <c r="Q66" s="455" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R66" s="455" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -11884,13 +11885,13 @@
         <v>151</v>
       </c>
       <c r="D67" s="457" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E67" s="457" t="s">
         <v>135</v>
       </c>
       <c r="F67" s="457" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G67" s="457" t="s">
         <v>287</v>
@@ -11908,17 +11909,17 @@
       <c r="L67" s="458"/>
       <c r="M67" s="459"/>
       <c r="N67" s="457" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O67" s="459"/>
       <c r="P67" s="457" t="s">
         <v>328</v>
       </c>
       <c r="Q67" s="458" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R67" s="458" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -11932,13 +11933,13 @@
         <v>195</v>
       </c>
       <c r="D68" s="460" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E68" s="460" t="s">
         <v>46</v>
       </c>
       <c r="F68" s="460" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G68" s="460" t="s">
         <v>47</v>
@@ -11956,17 +11957,17 @@
       <c r="L68" s="461"/>
       <c r="M68" s="462"/>
       <c r="N68" s="460" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O68" s="462"/>
       <c r="P68" s="460" t="s">
         <v>328</v>
       </c>
       <c r="Q68" s="461" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R68" s="461" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -11980,16 +11981,16 @@
         <v>171</v>
       </c>
       <c r="D69" s="463" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E69" s="463" t="s">
+        <v>537</v>
+      </c>
+      <c r="F69" s="463" t="s">
         <v>538</v>
       </c>
-      <c r="F69" s="463" t="s">
+      <c r="G69" s="463" t="s">
         <v>539</v>
-      </c>
-      <c r="G69" s="463" t="s">
-        <v>540</v>
       </c>
       <c r="H69" s="464" t="s">
         <v>24</v>
@@ -12006,17 +12007,17 @@
       <c r="L69" s="464"/>
       <c r="M69" s="465"/>
       <c r="N69" s="463" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O69" s="465"/>
       <c r="P69" s="463" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q69" s="464" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R69" s="464" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -12024,19 +12025,19 @@
         <v>195</v>
       </c>
       <c r="B70" s="466" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C70" s="466" t="s">
         <v>195</v>
       </c>
       <c r="D70" s="466" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E70" s="466" t="s">
+        <v>540</v>
+      </c>
+      <c r="F70" s="466" t="s">
         <v>541</v>
-      </c>
-      <c r="F70" s="466" t="s">
-        <v>542</v>
       </c>
       <c r="G70" s="466" t="s">
         <v>57</v>
@@ -12054,17 +12055,17 @@
       <c r="L70" s="467"/>
       <c r="M70" s="468"/>
       <c r="N70" s="466" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O70" s="468"/>
       <c r="P70" s="466" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q70" s="467" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R70" s="467" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -12072,22 +12073,22 @@
         <v>195</v>
       </c>
       <c r="B71" s="469" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C71" s="469" t="s">
         <v>195</v>
       </c>
       <c r="D71" s="469" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E71" s="469" t="s">
+        <v>554</v>
+      </c>
+      <c r="F71" s="469" t="s">
         <v>555</v>
       </c>
-      <c r="F71" s="469" t="s">
+      <c r="G71" s="469" t="s">
         <v>556</v>
-      </c>
-      <c r="G71" s="469" t="s">
-        <v>557</v>
       </c>
       <c r="H71" s="470" t="s">
         <v>24</v>
@@ -12102,46 +12103,46 @@
       <c r="L71" s="470"/>
       <c r="M71" s="471"/>
       <c r="N71" s="469" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O71" s="471"/>
       <c r="P71" s="469" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q71" s="470" t="s">
+        <v>529</v>
+      </c>
+      <c r="R71" s="470" t="s">
         <v>530</v>
-      </c>
-      <c r="R71" s="470" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="472" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B72" s="472" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C72" s="472" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D72" s="472" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E72" s="472" t="s">
+        <v>557</v>
+      </c>
+      <c r="F72" s="472" t="s">
         <v>558</v>
-      </c>
-      <c r="F72" s="472" t="s">
-        <v>559</v>
       </c>
       <c r="G72" s="472" t="s">
         <v>279</v>
       </c>
       <c r="H72" s="473" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I72" s="473" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J72" s="473" t="s">
         <v>334</v>
@@ -12152,17 +12153,17 @@
       <c r="L72" s="473"/>
       <c r="M72" s="474"/>
       <c r="N72" s="472" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O72" s="474"/>
       <c r="P72" s="472" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q72" s="473" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R72" s="473" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -12176,13 +12177,13 @@
         <v>195</v>
       </c>
       <c r="D73" s="475" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E73" s="475" t="s">
         <v>46</v>
       </c>
       <c r="F73" s="475" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G73" s="475" t="s">
         <v>47</v>
@@ -12200,46 +12201,46 @@
       <c r="L73" s="476"/>
       <c r="M73" s="477"/>
       <c r="N73" s="475" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O73" s="477"/>
       <c r="P73" s="475" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Q73" s="476" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R73" s="476" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="478" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B74" s="478" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C74" s="478" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D74" s="478" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E74" s="478" t="s">
+        <v>567</v>
+      </c>
+      <c r="F74" s="478" t="s">
         <v>568</v>
       </c>
-      <c r="F74" s="478" t="s">
+      <c r="G74" s="478" t="s">
         <v>569</v>
       </c>
-      <c r="G74" s="478" t="s">
-        <v>570</v>
-      </c>
       <c r="H74" s="479" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I74" s="479" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J74" s="479" t="s">
         <v>334</v>
@@ -12250,46 +12251,46 @@
       <c r="L74" s="479"/>
       <c r="M74" s="480"/>
       <c r="N74" s="478" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O74" s="480"/>
       <c r="P74" s="478" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q74" s="479" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R74" s="479" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="481" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B75" s="481" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C75" s="481" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D75" s="481" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E75" s="481" t="s">
+        <v>575</v>
+      </c>
+      <c r="F75" s="481" t="s">
         <v>576</v>
       </c>
-      <c r="F75" s="481" t="s">
+      <c r="G75" s="481" t="s">
         <v>577</v>
       </c>
-      <c r="G75" s="481" t="s">
-        <v>578</v>
-      </c>
       <c r="H75" s="482" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I75" s="482" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J75" s="482" t="s">
         <v>406</v>
@@ -12298,46 +12299,46 @@
       <c r="L75" s="482"/>
       <c r="M75" s="483"/>
       <c r="N75" s="481" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O75" s="483"/>
       <c r="P75" s="481" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Q75" s="482" t="s">
+        <v>529</v>
+      </c>
+      <c r="R75" s="482" t="s">
         <v>530</v>
-      </c>
-      <c r="R75" s="482" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="484" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B76" s="484" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C76" s="484" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D76" s="484" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E76" s="484" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F76" s="484" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G76" s="484" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H76" s="485" t="s">
+        <v>571</v>
+      </c>
+      <c r="I76" s="485" t="s">
         <v>572</v>
-      </c>
-      <c r="I76" s="485" t="s">
-        <v>573</v>
       </c>
       <c r="J76" s="485" t="s">
         <v>406</v>
@@ -12346,46 +12347,46 @@
       <c r="L76" s="485"/>
       <c r="M76" s="486"/>
       <c r="N76" s="484" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O76" s="486"/>
       <c r="P76" s="484" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q76" s="485" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R76" s="485" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="487" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B77" s="487" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C77" s="487" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D77" s="487" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E77" s="487" t="s">
+        <v>585</v>
+      </c>
+      <c r="F77" s="487" t="s">
         <v>586</v>
       </c>
-      <c r="F77" s="487" t="s">
+      <c r="G77" s="487" t="s">
         <v>587</v>
       </c>
-      <c r="G77" s="487" t="s">
-        <v>588</v>
-      </c>
       <c r="H77" s="488" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I77" s="488" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J77" s="488" t="s">
         <v>334</v>
@@ -12394,17 +12395,17 @@
       <c r="L77" s="488"/>
       <c r="M77" s="489"/>
       <c r="N77" s="487" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O77" s="489"/>
       <c r="P77" s="487" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q77" s="488" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R77" s="488" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -12418,19 +12419,19 @@
         <v>195</v>
       </c>
       <c r="D78" s="490" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E78" s="490" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="490" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G78" s="490" t="s">
         <v>354</v>
       </c>
       <c r="H78" s="491" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I78" s="491" t="s">
         <v>338</v>
@@ -12444,17 +12445,17 @@
         <v>43164</v>
       </c>
       <c r="N78" s="490" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O78" s="492"/>
       <c r="P78" s="490" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q78" s="491" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R78" s="491" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -12472,7 +12473,7 @@
         <v>87</v>
       </c>
       <c r="F79" s="493" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G79" s="493" t="s">
         <v>271</v>
@@ -12481,7 +12482,7 @@
         <v>24</v>
       </c>
       <c r="I79" s="494" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J79" s="494" t="s">
         <v>313</v>
@@ -12496,7 +12497,7 @@
       <c r="P79" s="493"/>
       <c r="Q79" s="494"/>
       <c r="R79" s="494" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -12511,16 +12512,16 @@
       </c>
       <c r="D80" s="496"/>
       <c r="E80" s="496" t="s">
+        <v>608</v>
+      </c>
+      <c r="F80" s="496" t="s">
         <v>609</v>
-      </c>
-      <c r="F80" s="496" t="s">
-        <v>610</v>
       </c>
       <c r="G80" s="496" t="s">
         <v>381</v>
       </c>
       <c r="H80" s="497" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I80" s="497" t="s">
         <v>385</v>
@@ -12537,10 +12538,10 @@
       <c r="O80" s="498"/>
       <c r="P80" s="496"/>
       <c r="Q80" s="497" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R80" s="497" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -12555,19 +12556,19 @@
       </c>
       <c r="D81" s="499"/>
       <c r="E81" s="499" t="s">
+        <v>479</v>
+      </c>
+      <c r="F81" s="499" t="s">
         <v>480</v>
       </c>
-      <c r="F81" s="499" t="s">
+      <c r="G81" s="499" t="s">
         <v>481</v>
-      </c>
-      <c r="G81" s="499" t="s">
-        <v>482</v>
       </c>
       <c r="H81" s="500" t="s">
         <v>401</v>
       </c>
       <c r="I81" s="500" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J81" s="500" t="s">
         <v>329</v>
@@ -12582,7 +12583,7 @@
       <c r="P81" s="499"/>
       <c r="Q81" s="500"/>
       <c r="R81" s="500" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>

--- a/SonarLysaFX/src/resources/Suivi_Quality_GateTest.xlsx
+++ b/SonarLysaFX/src/resources/Suivi_Quality_GateTest.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dev\git\Redmine\SonarLysaFX\src\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="22245" windowHeight="11280"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="22245" windowHeight="11280" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Anomalies closes" sheetId="38" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="610">
   <si>
     <t>Edition</t>
   </si>
@@ -1771,31 +1766,13 @@
     <t>Voir pour reprise des défauts du composant E30 sur le composant E32</t>
   </si>
   <si>
-    <t>Lot 311270</t>
-  </si>
-  <si>
-    <t>CHC2018-S26</t>
-  </si>
-  <si>
     <t>DEVOPS</t>
   </si>
   <si>
     <t>GESTION DES SERVICES DEVOPS</t>
   </si>
   <si>
-    <t>PSUP009</t>
-  </si>
-  <si>
-    <t>Tests BF V8</t>
-  </si>
-  <si>
-    <t>CESBRON Bruno</t>
-  </si>
-  <si>
     <t>Défauts corrigés , composant embarqué dans le lot 310576</t>
-  </si>
-  <si>
-    <t>Lot absent JAZZ et composants TESTS --&gt; voir avec Bruno CESBRON</t>
   </si>
   <si>
     <t>Date création</t>
@@ -1880,7 +1857,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="148" x14ac:knownFonts="1">
+  <fonts count="147" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2015,12 +1992,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -3284,7 +3255,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="547">
+  <cellXfs count="544">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4747,19 +4718,10 @@
     <xf numFmtId="14" fontId="0" fillId="41" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="41" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="144" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="42" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4768,16 +4730,16 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="145" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="43" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="146" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="43" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="43" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4926,49 +4888,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -4993,7 +4955,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5035,7 +4997,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5070,7 +5032,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5281,11 +5243,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -5308,7 +5270,7 @@
     <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
@@ -5325,7 +5287,7 @@
         <v>141</v>
       </c>
       <c r="F1" s="229" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>142</v>
@@ -5346,16 +5308,16 @@
         <v>144</v>
       </c>
       <c r="M1" s="229" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="N1" s="229" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="O1" s="229" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="P1" s="229" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>487</v>
@@ -5386,7 +5348,7 @@
       <c r="E2" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="541"/>
+      <c r="F2" s="538"/>
       <c r="G2" s="60" t="s">
         <v>215</v>
       </c>
@@ -5405,10 +5367,10 @@
       <c r="L2" s="64">
         <v>248077</v>
       </c>
-      <c r="M2" s="501"/>
-      <c r="N2" s="501"/>
-      <c r="O2" s="501"/>
-      <c r="P2" s="501"/>
+      <c r="M2" s="498"/>
+      <c r="N2" s="498"/>
+      <c r="O2" s="498"/>
+      <c r="P2" s="498"/>
       <c r="Q2" s="60" t="s">
         <v>314</v>
       </c>
@@ -5438,7 +5400,7 @@
       <c r="E3" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="F3" s="541"/>
+      <c r="F3" s="538"/>
       <c r="G3" s="60" t="s">
         <v>201</v>
       </c>
@@ -5455,10 +5417,10 @@
       <c r="L3" s="68">
         <v>248089</v>
       </c>
-      <c r="M3" s="502"/>
-      <c r="N3" s="502"/>
-      <c r="O3" s="502"/>
-      <c r="P3" s="502"/>
+      <c r="M3" s="499"/>
+      <c r="N3" s="499"/>
+      <c r="O3" s="499"/>
+      <c r="P3" s="499"/>
       <c r="Q3" s="60" t="s">
         <v>314</v>
       </c>
@@ -5488,7 +5450,7 @@
       <c r="E4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="541"/>
+      <c r="F4" s="538"/>
       <c r="G4" s="60" t="s">
         <v>372</v>
       </c>
@@ -5507,10 +5469,10 @@
       <c r="L4" s="66">
         <v>307394</v>
       </c>
-      <c r="M4" s="503"/>
-      <c r="N4" s="503"/>
-      <c r="O4" s="503"/>
-      <c r="P4" s="503"/>
+      <c r="M4" s="500"/>
+      <c r="N4" s="500"/>
+      <c r="O4" s="500"/>
+      <c r="P4" s="500"/>
       <c r="Q4" s="60" t="s">
         <v>314</v>
       </c>
@@ -5540,7 +5502,7 @@
       <c r="E5" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="542"/>
+      <c r="F5" s="539"/>
       <c r="G5" s="16" t="s">
         <v>235</v>
       </c>
@@ -5557,10 +5519,10 @@
       <c r="L5" s="18">
         <v>268009</v>
       </c>
-      <c r="M5" s="504"/>
-      <c r="N5" s="504"/>
-      <c r="O5" s="504"/>
-      <c r="P5" s="504"/>
+      <c r="M5" s="501"/>
+      <c r="N5" s="501"/>
+      <c r="O5" s="501"/>
+      <c r="P5" s="501"/>
       <c r="Q5" s="16" t="s">
         <v>314</v>
       </c>
@@ -5590,7 +5552,7 @@
       <c r="E6" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="542"/>
+      <c r="F6" s="539"/>
       <c r="G6" s="17" t="s">
         <v>159</v>
       </c>
@@ -5607,10 +5569,10 @@
       <c r="L6" s="14">
         <v>298836</v>
       </c>
-      <c r="M6" s="505"/>
-      <c r="N6" s="505"/>
-      <c r="O6" s="505"/>
-      <c r="P6" s="505"/>
+      <c r="M6" s="502"/>
+      <c r="N6" s="502"/>
+      <c r="O6" s="502"/>
+      <c r="P6" s="502"/>
       <c r="Q6" s="17" t="s">
         <v>314</v>
       </c>
@@ -5640,7 +5602,7 @@
       <c r="E7" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="543"/>
+      <c r="F7" s="540"/>
       <c r="G7" s="62" t="s">
         <v>214</v>
       </c>
@@ -5659,10 +5621,10 @@
       <c r="L7" s="70">
         <v>294406</v>
       </c>
-      <c r="M7" s="506"/>
-      <c r="N7" s="506"/>
-      <c r="O7" s="506"/>
-      <c r="P7" s="506"/>
+      <c r="M7" s="503"/>
+      <c r="N7" s="503"/>
+      <c r="O7" s="503"/>
+      <c r="P7" s="503"/>
       <c r="Q7" s="62" t="s">
         <v>314</v>
       </c>
@@ -5692,7 +5654,7 @@
       <c r="E8" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="542"/>
+      <c r="F8" s="539"/>
       <c r="G8" s="19" t="s">
         <v>228</v>
       </c>
@@ -5709,10 +5671,10 @@
       <c r="L8" s="20">
         <v>292795</v>
       </c>
-      <c r="M8" s="507"/>
-      <c r="N8" s="507"/>
-      <c r="O8" s="507"/>
-      <c r="P8" s="507"/>
+      <c r="M8" s="504"/>
+      <c r="N8" s="504"/>
+      <c r="O8" s="504"/>
+      <c r="P8" s="504"/>
       <c r="Q8" s="19" t="s">
         <v>314</v>
       </c>
@@ -5742,7 +5704,7 @@
       <c r="E9" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="542"/>
+      <c r="F9" s="539"/>
       <c r="G9" s="21" t="s">
         <v>160</v>
       </c>
@@ -5759,10 +5721,10 @@
       <c r="L9" s="15">
         <v>294337</v>
       </c>
-      <c r="M9" s="508"/>
-      <c r="N9" s="508"/>
-      <c r="O9" s="508"/>
-      <c r="P9" s="508"/>
+      <c r="M9" s="505"/>
+      <c r="N9" s="505"/>
+      <c r="O9" s="505"/>
+      <c r="P9" s="505"/>
       <c r="Q9" s="21" t="s">
         <v>314</v>
       </c>
@@ -5792,7 +5754,7 @@
       <c r="E10" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="541"/>
+      <c r="F10" s="538"/>
       <c r="G10" s="60" t="s">
         <v>179</v>
       </c>
@@ -5809,10 +5771,10 @@
       <c r="L10" s="72">
         <v>285909</v>
       </c>
-      <c r="M10" s="509"/>
-      <c r="N10" s="509"/>
-      <c r="O10" s="509"/>
-      <c r="P10" s="509"/>
+      <c r="M10" s="506"/>
+      <c r="N10" s="506"/>
+      <c r="O10" s="506"/>
+      <c r="P10" s="506"/>
       <c r="Q10" s="60" t="s">
         <v>314</v>
       </c>
@@ -5842,7 +5804,7 @@
       <c r="E11" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="542"/>
+      <c r="F11" s="539"/>
       <c r="G11" s="22" t="s">
         <v>311</v>
       </c>
@@ -5861,10 +5823,10 @@
       <c r="L11" s="23">
         <v>302782</v>
       </c>
-      <c r="M11" s="510"/>
-      <c r="N11" s="510"/>
-      <c r="O11" s="510"/>
-      <c r="P11" s="510"/>
+      <c r="M11" s="507"/>
+      <c r="N11" s="507"/>
+      <c r="O11" s="507"/>
+      <c r="P11" s="507"/>
       <c r="Q11" s="22" t="s">
         <v>315</v>
       </c>
@@ -5894,7 +5856,7 @@
       <c r="E12" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="543"/>
+      <c r="F12" s="540"/>
       <c r="G12" s="24" t="s">
         <v>533</v>
       </c>
@@ -5913,10 +5875,10 @@
       <c r="L12" s="25">
         <v>310737</v>
       </c>
-      <c r="M12" s="511"/>
-      <c r="N12" s="511"/>
-      <c r="O12" s="511"/>
-      <c r="P12" s="511"/>
+      <c r="M12" s="508"/>
+      <c r="N12" s="508"/>
+      <c r="O12" s="508"/>
+      <c r="P12" s="508"/>
       <c r="Q12" s="24" t="s">
         <v>315</v>
       </c>
@@ -5946,7 +5908,7 @@
       <c r="E13" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="542"/>
+      <c r="F13" s="539"/>
       <c r="G13" s="63" t="s">
         <v>176</v>
       </c>
@@ -5963,10 +5925,10 @@
       <c r="L13" s="71">
         <v>292625</v>
       </c>
-      <c r="M13" s="512"/>
-      <c r="N13" s="512"/>
-      <c r="O13" s="512"/>
-      <c r="P13" s="512"/>
+      <c r="M13" s="509"/>
+      <c r="N13" s="509"/>
+      <c r="O13" s="509"/>
+      <c r="P13" s="509"/>
       <c r="Q13" s="63" t="s">
         <v>315</v>
       </c>
@@ -5996,7 +5958,7 @@
       <c r="E14" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="541"/>
+      <c r="F14" s="538"/>
       <c r="G14" s="26" t="s">
         <v>246</v>
       </c>
@@ -6013,10 +5975,10 @@
       <c r="L14" s="40">
         <v>294604</v>
       </c>
-      <c r="M14" s="513"/>
-      <c r="N14" s="513"/>
-      <c r="O14" s="513"/>
-      <c r="P14" s="513"/>
+      <c r="M14" s="510"/>
+      <c r="N14" s="510"/>
+      <c r="O14" s="510"/>
+      <c r="P14" s="510"/>
       <c r="Q14" s="26" t="s">
         <v>314</v>
       </c>
@@ -6046,7 +6008,7 @@
       <c r="E15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="541"/>
+      <c r="F15" s="538"/>
       <c r="G15" s="27" t="s">
         <v>308</v>
       </c>
@@ -6065,10 +6027,10 @@
       <c r="L15" s="44">
         <v>302777</v>
       </c>
-      <c r="M15" s="514"/>
-      <c r="N15" s="514"/>
-      <c r="O15" s="514"/>
-      <c r="P15" s="514"/>
+      <c r="M15" s="511"/>
+      <c r="N15" s="511"/>
+      <c r="O15" s="511"/>
+      <c r="P15" s="511"/>
       <c r="Q15" s="27" t="s">
         <v>314</v>
       </c>
@@ -6098,7 +6060,7 @@
       <c r="E16" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="541"/>
+      <c r="F16" s="538"/>
       <c r="G16" s="29" t="s">
         <v>219</v>
       </c>
@@ -6117,10 +6079,10 @@
       <c r="L16" s="34">
         <v>294412</v>
       </c>
-      <c r="M16" s="515"/>
-      <c r="N16" s="515"/>
-      <c r="O16" s="515"/>
-      <c r="P16" s="515"/>
+      <c r="M16" s="512"/>
+      <c r="N16" s="512"/>
+      <c r="O16" s="512"/>
+      <c r="P16" s="512"/>
       <c r="Q16" s="29" t="s">
         <v>314</v>
       </c>
@@ -6150,7 +6112,7 @@
       <c r="E17" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="541"/>
+      <c r="F17" s="538"/>
       <c r="G17" s="31" t="s">
         <v>217</v>
       </c>
@@ -6167,10 +6129,10 @@
       <c r="L17" s="32">
         <v>294352</v>
       </c>
-      <c r="M17" s="516"/>
-      <c r="N17" s="516"/>
-      <c r="O17" s="516"/>
-      <c r="P17" s="516"/>
+      <c r="M17" s="513"/>
+      <c r="N17" s="513"/>
+      <c r="O17" s="513"/>
+      <c r="P17" s="513"/>
       <c r="Q17" s="31" t="s">
         <v>314</v>
       </c>
@@ -6200,7 +6162,7 @@
       <c r="E18" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="542"/>
+      <c r="F18" s="539"/>
       <c r="G18" s="61" t="s">
         <v>210</v>
       </c>
@@ -6217,10 +6179,10 @@
       <c r="L18" s="69">
         <v>294356</v>
       </c>
-      <c r="M18" s="517"/>
-      <c r="N18" s="517"/>
-      <c r="O18" s="517"/>
-      <c r="P18" s="517"/>
+      <c r="M18" s="514"/>
+      <c r="N18" s="514"/>
+      <c r="O18" s="514"/>
+      <c r="P18" s="514"/>
       <c r="Q18" s="61" t="s">
         <v>314</v>
       </c>
@@ -6250,7 +6212,7 @@
       <c r="E19" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="541"/>
+      <c r="F19" s="538"/>
       <c r="G19" s="33" t="s">
         <v>231</v>
       </c>
@@ -6267,10 +6229,10 @@
       <c r="L19" s="36">
         <v>294360</v>
       </c>
-      <c r="M19" s="518"/>
-      <c r="N19" s="518"/>
-      <c r="O19" s="518"/>
-      <c r="P19" s="518"/>
+      <c r="M19" s="515"/>
+      <c r="N19" s="515"/>
+      <c r="O19" s="515"/>
+      <c r="P19" s="515"/>
       <c r="Q19" s="33" t="s">
         <v>314</v>
       </c>
@@ -6300,7 +6262,7 @@
       <c r="E20" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="541"/>
+      <c r="F20" s="538"/>
       <c r="G20" s="35" t="s">
         <v>190</v>
       </c>
@@ -6319,10 +6281,10 @@
       <c r="L20" s="28">
         <v>294418</v>
       </c>
-      <c r="M20" s="519"/>
-      <c r="N20" s="519"/>
-      <c r="O20" s="519"/>
-      <c r="P20" s="519"/>
+      <c r="M20" s="516"/>
+      <c r="N20" s="516"/>
+      <c r="O20" s="516"/>
+      <c r="P20" s="516"/>
       <c r="Q20" s="35" t="s">
         <v>314</v>
       </c>
@@ -6352,7 +6314,7 @@
       <c r="E21" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="542"/>
+      <c r="F21" s="539"/>
       <c r="G21" s="61" t="s">
         <v>306</v>
       </c>
@@ -6369,10 +6331,10 @@
       <c r="L21" s="73">
         <v>301771</v>
       </c>
-      <c r="M21" s="520"/>
-      <c r="N21" s="520"/>
-      <c r="O21" s="520"/>
-      <c r="P21" s="520"/>
+      <c r="M21" s="517"/>
+      <c r="N21" s="517"/>
+      <c r="O21" s="517"/>
+      <c r="P21" s="517"/>
       <c r="Q21" s="61" t="s">
         <v>315</v>
       </c>
@@ -6402,7 +6364,7 @@
       <c r="E22" s="37" t="s">
         <v>506</v>
       </c>
-      <c r="F22" s="541"/>
+      <c r="F22" s="538"/>
       <c r="G22" s="37" t="s">
         <v>506</v>
       </c>
@@ -6419,10 +6381,10 @@
         <v>313</v>
       </c>
       <c r="L22" s="42"/>
-      <c r="M22" s="521"/>
-      <c r="N22" s="521"/>
-      <c r="O22" s="521"/>
-      <c r="P22" s="521"/>
+      <c r="M22" s="518"/>
+      <c r="N22" s="518"/>
+      <c r="O22" s="518"/>
+      <c r="P22" s="518"/>
       <c r="Q22" s="37" t="s">
         <v>314</v>
       </c>
@@ -6452,7 +6414,7 @@
       <c r="E23" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="541"/>
+      <c r="F23" s="538"/>
       <c r="G23" s="39" t="s">
         <v>242</v>
       </c>
@@ -6469,10 +6431,10 @@
       <c r="L23" s="38">
         <v>294422</v>
       </c>
-      <c r="M23" s="522"/>
-      <c r="N23" s="522"/>
-      <c r="O23" s="522"/>
-      <c r="P23" s="522"/>
+      <c r="M23" s="519"/>
+      <c r="N23" s="519"/>
+      <c r="O23" s="519"/>
+      <c r="P23" s="519"/>
       <c r="Q23" s="39" t="s">
         <v>314</v>
       </c>
@@ -6502,7 +6464,7 @@
       <c r="E24" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="541"/>
+      <c r="F24" s="538"/>
       <c r="G24" s="41" t="s">
         <v>190</v>
       </c>
@@ -6521,10 +6483,10 @@
       <c r="L24" s="30">
         <v>294484</v>
       </c>
-      <c r="M24" s="523"/>
-      <c r="N24" s="523"/>
-      <c r="O24" s="523"/>
-      <c r="P24" s="523"/>
+      <c r="M24" s="520"/>
+      <c r="N24" s="520"/>
+      <c r="O24" s="520"/>
+      <c r="P24" s="520"/>
       <c r="Q24" s="41" t="s">
         <v>314</v>
       </c>
@@ -6554,7 +6516,7 @@
       <c r="E25" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="F25" s="541"/>
+      <c r="F25" s="538"/>
       <c r="G25" s="43" t="s">
         <v>506</v>
       </c>
@@ -6571,10 +6533,10 @@
         <v>316</v>
       </c>
       <c r="L25" s="53"/>
-      <c r="M25" s="524"/>
-      <c r="N25" s="524"/>
-      <c r="O25" s="524"/>
-      <c r="P25" s="524"/>
+      <c r="M25" s="521"/>
+      <c r="N25" s="521"/>
+      <c r="O25" s="521"/>
+      <c r="P25" s="521"/>
       <c r="Q25" s="43" t="s">
         <v>314</v>
       </c>
@@ -6604,7 +6566,7 @@
       <c r="E26" s="45" t="s">
         <v>363</v>
       </c>
-      <c r="F26" s="541"/>
+      <c r="F26" s="538"/>
       <c r="G26" s="45" t="s">
         <v>377</v>
       </c>
@@ -6623,10 +6585,10 @@
       <c r="L26" s="47">
         <v>307494</v>
       </c>
-      <c r="M26" s="525"/>
-      <c r="N26" s="525"/>
-      <c r="O26" s="525"/>
-      <c r="P26" s="525"/>
+      <c r="M26" s="522"/>
+      <c r="N26" s="522"/>
+      <c r="O26" s="522"/>
+      <c r="P26" s="522"/>
       <c r="Q26" s="45" t="s">
         <v>314</v>
       </c>
@@ -6656,7 +6618,7 @@
       <c r="E27" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="541"/>
+      <c r="F27" s="538"/>
       <c r="G27" s="46" t="s">
         <v>190</v>
       </c>
@@ -6675,10 +6637,10 @@
       <c r="L27" s="48">
         <v>307534</v>
       </c>
-      <c r="M27" s="526"/>
-      <c r="N27" s="526"/>
-      <c r="O27" s="526"/>
-      <c r="P27" s="526"/>
+      <c r="M27" s="523"/>
+      <c r="N27" s="523"/>
+      <c r="O27" s="523"/>
+      <c r="P27" s="523"/>
       <c r="Q27" s="46" t="s">
         <v>314</v>
       </c>
@@ -6708,7 +6670,7 @@
       <c r="E28" s="61" t="s">
         <v>506</v>
       </c>
-      <c r="F28" s="542"/>
+      <c r="F28" s="539"/>
       <c r="G28" s="61" t="s">
         <v>506</v>
       </c>
@@ -6727,10 +6689,10 @@
       <c r="L28" s="67">
         <v>302841</v>
       </c>
-      <c r="M28" s="527"/>
-      <c r="N28" s="527"/>
-      <c r="O28" s="527"/>
-      <c r="P28" s="527"/>
+      <c r="M28" s="524"/>
+      <c r="N28" s="524"/>
+      <c r="O28" s="524"/>
+      <c r="P28" s="524"/>
       <c r="Q28" s="61" t="s">
         <v>314</v>
       </c>
@@ -6760,7 +6722,7 @@
       <c r="E29" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="F29" s="542"/>
+      <c r="F29" s="539"/>
       <c r="G29" s="61" t="s">
         <v>298</v>
       </c>
@@ -6777,10 +6739,10 @@
       <c r="L29" s="65">
         <v>301702</v>
       </c>
-      <c r="M29" s="528"/>
-      <c r="N29" s="528"/>
-      <c r="O29" s="528"/>
-      <c r="P29" s="528"/>
+      <c r="M29" s="525"/>
+      <c r="N29" s="525"/>
+      <c r="O29" s="525"/>
+      <c r="P29" s="525"/>
       <c r="Q29" s="61" t="s">
         <v>314</v>
       </c>
@@ -6810,7 +6772,7 @@
       <c r="E30" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="F30" s="541"/>
+      <c r="F30" s="538"/>
       <c r="G30" s="50" t="s">
         <v>506</v>
       </c>
@@ -6827,10 +6789,10 @@
         <v>334</v>
       </c>
       <c r="L30" s="55"/>
-      <c r="M30" s="529"/>
-      <c r="N30" s="529"/>
-      <c r="O30" s="529"/>
-      <c r="P30" s="529"/>
+      <c r="M30" s="526"/>
+      <c r="N30" s="526"/>
+      <c r="O30" s="526"/>
+      <c r="P30" s="526"/>
       <c r="Q30" s="50" t="s">
         <v>314</v>
       </c>
@@ -6860,7 +6822,7 @@
       <c r="E31" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="541"/>
+      <c r="F31" s="538"/>
       <c r="G31" s="52" t="s">
         <v>190</v>
       </c>
@@ -6879,10 +6841,10 @@
       <c r="L31" s="49">
         <v>307551</v>
       </c>
-      <c r="M31" s="530"/>
-      <c r="N31" s="530"/>
-      <c r="O31" s="530"/>
-      <c r="P31" s="530"/>
+      <c r="M31" s="527"/>
+      <c r="N31" s="527"/>
+      <c r="O31" s="527"/>
+      <c r="P31" s="527"/>
       <c r="Q31" s="52" t="s">
         <v>314</v>
       </c>
@@ -6912,7 +6874,7 @@
       <c r="E32" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="F32" s="541"/>
+      <c r="F32" s="538"/>
       <c r="G32" s="54" t="s">
         <v>383</v>
       </c>
@@ -6929,10 +6891,10 @@
         <v>329</v>
       </c>
       <c r="L32" s="51"/>
-      <c r="M32" s="531"/>
-      <c r="N32" s="531"/>
-      <c r="O32" s="531"/>
-      <c r="P32" s="531"/>
+      <c r="M32" s="528"/>
+      <c r="N32" s="528"/>
+      <c r="O32" s="528"/>
+      <c r="P32" s="528"/>
       <c r="Q32" s="54" t="s">
         <v>314</v>
       </c>
@@ -6962,7 +6924,7 @@
       <c r="E33" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="541"/>
+      <c r="F33" s="538"/>
       <c r="G33" s="56" t="s">
         <v>527</v>
       </c>
@@ -6979,10 +6941,10 @@
         <v>334</v>
       </c>
       <c r="L33" s="59"/>
-      <c r="M33" s="532"/>
-      <c r="N33" s="532"/>
-      <c r="O33" s="532"/>
-      <c r="P33" s="532"/>
+      <c r="M33" s="529"/>
+      <c r="N33" s="529"/>
+      <c r="O33" s="529"/>
+      <c r="P33" s="529"/>
       <c r="Q33" s="56" t="s">
         <v>314</v>
       </c>
@@ -7012,7 +6974,7 @@
       <c r="E34" s="58" t="s">
         <v>513</v>
       </c>
-      <c r="F34" s="541"/>
+      <c r="F34" s="538"/>
       <c r="G34" s="58" t="s">
         <v>514</v>
       </c>
@@ -7029,10 +6991,10 @@
         <v>334</v>
       </c>
       <c r="L34" s="57"/>
-      <c r="M34" s="533"/>
-      <c r="N34" s="533"/>
-      <c r="O34" s="533"/>
-      <c r="P34" s="533"/>
+      <c r="M34" s="530"/>
+      <c r="N34" s="530"/>
+      <c r="O34" s="530"/>
+      <c r="P34" s="530"/>
       <c r="Q34" s="58" t="s">
         <v>314</v>
       </c>
@@ -7062,7 +7024,7 @@
       <c r="E35" s="74" t="s">
         <v>506</v>
       </c>
-      <c r="F35" s="544"/>
+      <c r="F35" s="541"/>
       <c r="G35" s="74" t="s">
         <v>506</v>
       </c>
@@ -7079,10 +7041,10 @@
         <v>316</v>
       </c>
       <c r="L35" s="75"/>
-      <c r="M35" s="534"/>
-      <c r="N35" s="534"/>
-      <c r="O35" s="534"/>
-      <c r="P35" s="534"/>
+      <c r="M35" s="531"/>
+      <c r="N35" s="531"/>
+      <c r="O35" s="531"/>
+      <c r="P35" s="531"/>
       <c r="Q35" s="74" t="s">
         <v>314</v>
       </c>
@@ -7112,7 +7074,7 @@
       <c r="E36" s="76" t="s">
         <v>506</v>
       </c>
-      <c r="F36" s="544"/>
+      <c r="F36" s="541"/>
       <c r="G36" s="76" t="s">
         <v>506</v>
       </c>
@@ -7129,10 +7091,10 @@
         <v>316</v>
       </c>
       <c r="L36" s="77"/>
-      <c r="M36" s="535"/>
-      <c r="N36" s="535"/>
-      <c r="O36" s="535"/>
-      <c r="P36" s="535"/>
+      <c r="M36" s="532"/>
+      <c r="N36" s="532"/>
+      <c r="O36" s="532"/>
+      <c r="P36" s="532"/>
       <c r="Q36" s="76" t="s">
         <v>314</v>
       </c>
@@ -7146,7 +7108,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
         <v>195</v>
       </c>
@@ -7162,7 +7124,7 @@
       <c r="E37" s="78" t="s">
         <v>559</v>
       </c>
-      <c r="F37" s="544"/>
+      <c r="F37" s="541"/>
       <c r="G37" s="78" t="s">
         <v>560</v>
       </c>
@@ -7179,10 +7141,10 @@
         <v>334</v>
       </c>
       <c r="L37" s="79"/>
-      <c r="M37" s="536"/>
-      <c r="N37" s="536"/>
-      <c r="O37" s="536"/>
-      <c r="P37" s="536"/>
+      <c r="M37" s="533"/>
+      <c r="N37" s="533"/>
+      <c r="O37" s="533"/>
+      <c r="P37" s="533"/>
       <c r="Q37" s="78" t="s">
         <v>314</v>
       </c>
@@ -7212,7 +7174,7 @@
       <c r="E38" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="545"/>
+      <c r="F38" s="542"/>
       <c r="G38" s="80" t="s">
         <v>307</v>
       </c>
@@ -7231,10 +7193,10 @@
       <c r="L38" s="81">
         <v>301775</v>
       </c>
-      <c r="M38" s="537"/>
-      <c r="N38" s="537"/>
-      <c r="O38" s="537"/>
-      <c r="P38" s="537"/>
+      <c r="M38" s="534"/>
+      <c r="N38" s="534"/>
+      <c r="O38" s="534"/>
+      <c r="P38" s="534"/>
       <c r="Q38" s="80" t="s">
         <v>314</v>
       </c>
@@ -7264,7 +7226,7 @@
       <c r="E39" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="545"/>
+      <c r="F39" s="542"/>
       <c r="G39" s="82" t="s">
         <v>373</v>
       </c>
@@ -7283,10 +7245,10 @@
       <c r="L39" s="83">
         <v>307554</v>
       </c>
-      <c r="M39" s="538"/>
-      <c r="N39" s="538"/>
-      <c r="O39" s="538"/>
-      <c r="P39" s="538"/>
+      <c r="M39" s="535"/>
+      <c r="N39" s="535"/>
+      <c r="O39" s="535"/>
+      <c r="P39" s="535"/>
       <c r="Q39" s="82" t="s">
         <v>314</v>
       </c>
@@ -7316,7 +7278,7 @@
       <c r="E40" s="84" t="s">
         <v>479</v>
       </c>
-      <c r="F40" s="546"/>
+      <c r="F40" s="543"/>
       <c r="G40" s="84" t="s">
         <v>480</v>
       </c>
@@ -7335,15 +7297,15 @@
       <c r="L40" s="85">
         <v>309174</v>
       </c>
-      <c r="M40" s="539"/>
-      <c r="N40" s="539"/>
-      <c r="O40" s="539"/>
-      <c r="P40" s="539"/>
+      <c r="M40" s="536"/>
+      <c r="N40" s="536"/>
+      <c r="O40" s="536"/>
+      <c r="P40" s="536"/>
       <c r="Q40" s="86" t="s">
         <v>314</v>
       </c>
       <c r="R40" s="84" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="T40" s="85" t="s">
         <v>551</v>
@@ -7365,7 +7327,7 @@
       <c r="E41" s="86" t="s">
         <v>552</v>
       </c>
-      <c r="F41" s="546"/>
+      <c r="F41" s="543"/>
       <c r="G41" s="86" t="s">
         <v>553</v>
       </c>
@@ -7384,10 +7346,10 @@
       <c r="L41" s="87">
         <v>310986</v>
       </c>
-      <c r="M41" s="540"/>
-      <c r="N41" s="540"/>
-      <c r="O41" s="540"/>
-      <c r="P41" s="540"/>
+      <c r="M41" s="537"/>
+      <c r="N41" s="537"/>
+      <c r="O41" s="537"/>
+      <c r="P41" s="537"/>
       <c r="Q41" s="86" t="s">
         <v>314</v>
       </c>
@@ -7444,7 +7406,7 @@
         <v>314</v>
       </c>
       <c r="R42" s="470" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="S42" s="235"/>
       <c r="T42" s="234" t="s">
@@ -7492,7 +7454,7 @@
         <v>314</v>
       </c>
       <c r="R43" s="470" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="S43" s="274"/>
       <c r="T43" s="273" t="s">
@@ -7540,7 +7502,7 @@
         <v>314</v>
       </c>
       <c r="R44" s="470" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="S44" s="277"/>
       <c r="T44" s="276" t="s">
@@ -7597,7 +7559,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="293" t="s">
         <v>195</v>
       </c>
@@ -7640,7 +7602,7 @@
         <v>314</v>
       </c>
       <c r="R46" s="470" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="S46" s="295"/>
       <c r="T46" s="294" t="s">
@@ -7688,7 +7650,7 @@
         <v>314</v>
       </c>
       <c r="R47" s="470" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="S47" s="298"/>
       <c r="T47" s="297" t="s">
@@ -7788,7 +7750,7 @@
         <v>315</v>
       </c>
       <c r="R49" s="470" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="S49" s="310"/>
       <c r="T49" s="309" t="s">
@@ -7886,7 +7848,7 @@
         <v>314</v>
       </c>
       <c r="R51" s="470" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="S51" s="328"/>
       <c r="T51" s="327" t="s">
@@ -8005,7 +7967,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
@@ -8168,7 +8130,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="109" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B12" s="110" t="s">
         <v>24</v>
@@ -8185,7 +8147,7 @@
         <v>385</v>
       </c>
       <c r="B13" s="112" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C13" s="111" t="s">
         <v>329</v>
@@ -8207,7 +8169,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
@@ -8257,7 +8219,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="500">
+      <c r="A4" s="497">
         <v>242634</v>
       </c>
       <c r="B4" s="119" t="s">
@@ -8280,7 +8242,7 @@
       <c r="C5" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="D5" s="500">
+      <c r="D5" s="497">
         <v>1</v>
       </c>
     </row>
@@ -8916,7 +8878,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="208" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B51" s="470" t="s">
         <v>459</v>
@@ -8925,7 +8887,7 @@
         <v>313</v>
       </c>
       <c r="D51" s="208" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -8940,7 +8902,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -8968,13 +8930,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U81"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="H59" workbookViewId="0">
+      <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
@@ -8998,7 +8960,7 @@
     <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="213" t="s">
         <v>137</v>
       </c>
@@ -9015,7 +8977,7 @@
         <v>141</v>
       </c>
       <c r="F1" s="229" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G1" s="218" t="s">
         <v>142</v>
@@ -9036,16 +8998,16 @@
         <v>144</v>
       </c>
       <c r="M1" s="229" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="N1" s="229" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="O1" s="224" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="P1" s="226" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="Q1" s="225" t="s">
         <v>487</v>
@@ -9060,7 +9022,7 @@
         <v>490</v>
       </c>
       <c r="U1" s="229" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -9133,7 +9095,7 @@
       <c r="E3" s="236" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="488"/>
+      <c r="F3" s="485"/>
       <c r="G3" s="236" t="s">
         <v>156</v>
       </c>
@@ -9162,7 +9124,7 @@
         <v>150</v>
       </c>
       <c r="R3" s="236" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="S3" s="237" t="s">
         <v>506</v>
@@ -9187,7 +9149,7 @@
       <c r="E4" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="488"/>
+      <c r="F4" s="485"/>
       <c r="G4" s="239" t="s">
         <v>156</v>
       </c>
@@ -9223,7 +9185,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="242" t="s">
         <v>151</v>
       </c>
@@ -9239,7 +9201,7 @@
       <c r="E5" s="242" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="488"/>
+      <c r="F5" s="485"/>
       <c r="G5" s="242" t="s">
         <v>165</v>
       </c>
@@ -9293,7 +9255,7 @@
       <c r="E6" s="245" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="488"/>
+      <c r="F6" s="485"/>
       <c r="G6" s="245" t="s">
         <v>166</v>
       </c>
@@ -9347,7 +9309,7 @@
       <c r="E7" s="248" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="488"/>
+      <c r="F7" s="485"/>
       <c r="G7" s="248" t="s">
         <v>166</v>
       </c>
@@ -9399,7 +9361,7 @@
       <c r="E8" s="251" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="488"/>
+      <c r="F8" s="485"/>
       <c r="G8" s="251" t="s">
         <v>169</v>
       </c>
@@ -9453,7 +9415,7 @@
       <c r="E9" s="254" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="488"/>
+      <c r="F9" s="485"/>
       <c r="G9" s="254" t="s">
         <v>170</v>
       </c>
@@ -9491,13 +9453,13 @@
     </row>
     <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="257" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B10" s="257" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C10" s="257" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D10" s="257" t="s">
         <v>178</v>
@@ -9505,7 +9467,7 @@
       <c r="E10" s="257" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="488"/>
+      <c r="F10" s="485"/>
       <c r="G10" s="257" t="s">
         <v>181</v>
       </c>
@@ -9557,7 +9519,7 @@
       <c r="E11" s="260" t="s">
         <v>184</v>
       </c>
-      <c r="F11" s="488"/>
+      <c r="F11" s="485"/>
       <c r="G11" s="260" t="s">
         <v>185</v>
       </c>
@@ -9586,7 +9548,7 @@
         <v>150</v>
       </c>
       <c r="R11" s="260" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="S11" s="261" t="s">
         <v>529</v>
@@ -9611,7 +9573,7 @@
       <c r="E12" s="263" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="488"/>
+      <c r="F12" s="485"/>
       <c r="G12" s="263" t="s">
         <v>193</v>
       </c>
@@ -9663,7 +9625,7 @@
       <c r="E13" s="266" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="488"/>
+      <c r="F13" s="485"/>
       <c r="G13" s="266" t="s">
         <v>198</v>
       </c>
@@ -9715,7 +9677,7 @@
       <c r="E14" s="269" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="488"/>
+      <c r="F14" s="485"/>
       <c r="G14" s="269" t="s">
         <v>205</v>
       </c>
@@ -9767,7 +9729,7 @@
       <c r="E15" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="488"/>
+      <c r="F15" s="485"/>
       <c r="G15" s="278" t="s">
         <v>198</v>
       </c>
@@ -9794,7 +9756,7 @@
         <v>150</v>
       </c>
       <c r="R15" s="278" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="S15" s="279" t="s">
         <v>506</v>
@@ -9819,7 +9781,7 @@
       <c r="E16" s="284" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="488"/>
+      <c r="F16" s="485"/>
       <c r="G16" s="284" t="s">
         <v>215</v>
       </c>
@@ -9871,7 +9833,7 @@
       <c r="E17" s="287" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="488"/>
+      <c r="F17" s="485"/>
       <c r="G17" s="287" t="s">
         <v>217</v>
       </c>
@@ -9923,7 +9885,7 @@
       <c r="E18" s="290" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="488"/>
+      <c r="F18" s="485"/>
       <c r="G18" s="290" t="s">
         <v>214</v>
       </c>
@@ -9975,7 +9937,7 @@
       <c r="E19" s="299" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="488"/>
+      <c r="F19" s="485"/>
       <c r="G19" s="299" t="s">
         <v>226</v>
       </c>
@@ -10015,13 +9977,13 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="302" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B20" s="302" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C20" s="302" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D20" s="302" t="s">
         <v>224</v>
@@ -10029,7 +9991,7 @@
       <c r="E20" s="302" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="488"/>
+      <c r="F20" s="485"/>
       <c r="G20" s="302" t="s">
         <v>227</v>
       </c>
@@ -10079,7 +10041,7 @@
       <c r="E21" s="314" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="488"/>
+      <c r="F21" s="485"/>
       <c r="G21" s="314" t="s">
         <v>251</v>
       </c>
@@ -10133,7 +10095,7 @@
       <c r="E22" s="317" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="488"/>
+      <c r="F22" s="485"/>
       <c r="G22" s="317" t="s">
         <v>252</v>
       </c>
@@ -10185,7 +10147,7 @@
       <c r="E23" s="320" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="488"/>
+      <c r="F23" s="485"/>
       <c r="G23" s="320" t="s">
         <v>257</v>
       </c>
@@ -10237,7 +10199,7 @@
       <c r="E24" s="323" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="488"/>
+      <c r="F24" s="485"/>
       <c r="G24" s="323" t="s">
         <v>257</v>
       </c>
@@ -10291,7 +10253,7 @@
       <c r="E25" s="329" t="s">
         <v>299</v>
       </c>
-      <c r="F25" s="488"/>
+      <c r="F25" s="485"/>
       <c r="G25" s="329" t="s">
         <v>506</v>
       </c>
@@ -10341,7 +10303,7 @@
       <c r="E26" s="332" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="488"/>
+      <c r="F26" s="485"/>
       <c r="G26" s="332" t="s">
         <v>506</v>
       </c>
@@ -10395,7 +10357,7 @@
       <c r="E27" s="335" t="s">
         <v>300</v>
       </c>
-      <c r="F27" s="488"/>
+      <c r="F27" s="485"/>
       <c r="G27" s="335" t="s">
         <v>506</v>
       </c>
@@ -10447,7 +10409,7 @@
       <c r="E28" s="338" t="s">
         <v>506</v>
       </c>
-      <c r="F28" s="488"/>
+      <c r="F28" s="485"/>
       <c r="G28" s="338" t="s">
         <v>506</v>
       </c>
@@ -10483,13 +10445,13 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="341" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B29" s="341" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C29" s="341" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D29" s="341" t="s">
         <v>224</v>
@@ -10497,7 +10459,7 @@
       <c r="E29" s="341" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="488"/>
+      <c r="F29" s="485"/>
       <c r="G29" s="341" t="s">
         <v>301</v>
       </c>
@@ -10524,7 +10486,7 @@
         <v>150</v>
       </c>
       <c r="R29" s="341" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="S29" s="342" t="s">
         <v>506</v>
@@ -10599,7 +10561,7 @@
       <c r="E31" s="347" t="s">
         <v>302</v>
       </c>
-      <c r="F31" s="488"/>
+      <c r="F31" s="485"/>
       <c r="G31" s="347" t="s">
         <v>303</v>
       </c>
@@ -10697,7 +10659,7 @@
       <c r="E33" s="353" t="s">
         <v>506</v>
       </c>
-      <c r="F33" s="488"/>
+      <c r="F33" s="485"/>
       <c r="G33" s="353" t="s">
         <v>506</v>
       </c>
@@ -10722,7 +10684,7 @@
         <v>506</v>
       </c>
       <c r="R33" s="353" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="S33" s="354" t="s">
         <v>506</v>
@@ -10747,7 +10709,7 @@
       <c r="E34" s="356" t="s">
         <v>506</v>
       </c>
-      <c r="F34" s="488"/>
+      <c r="F34" s="485"/>
       <c r="G34" s="356" t="s">
         <v>506</v>
       </c>
@@ -10795,7 +10757,7 @@
       <c r="E35" s="359" t="s">
         <v>506</v>
       </c>
-      <c r="F35" s="488"/>
+      <c r="F35" s="485"/>
       <c r="G35" s="359" t="s">
         <v>506</v>
       </c>
@@ -10845,7 +10807,7 @@
       <c r="E36" s="362" t="s">
         <v>309</v>
       </c>
-      <c r="F36" s="488"/>
+      <c r="F36" s="485"/>
       <c r="G36" s="362" t="s">
         <v>310</v>
       </c>
@@ -10935,13 +10897,13 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="368" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B38" s="368" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C38" s="368" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D38" s="368" t="s">
         <v>506</v>
@@ -10949,7 +10911,7 @@
       <c r="E38" s="368" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="488"/>
+      <c r="F38" s="485"/>
       <c r="G38" s="368" t="s">
         <v>506</v>
       </c>
@@ -11001,7 +10963,7 @@
       <c r="E39" s="371" t="s">
         <v>506</v>
       </c>
-      <c r="F39" s="488"/>
+      <c r="F39" s="485"/>
       <c r="G39" s="371" t="s">
         <v>506</v>
       </c>
@@ -11105,7 +11067,7 @@
       <c r="E41" s="377" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="488"/>
+      <c r="F41" s="485"/>
       <c r="G41" s="377" t="s">
         <v>373</v>
       </c>
@@ -11469,7 +11431,7 @@
       <c r="E48" s="398" t="s">
         <v>361</v>
       </c>
-      <c r="F48" s="488"/>
+      <c r="F48" s="485"/>
       <c r="G48" s="398" t="s">
         <v>376</v>
       </c>
@@ -11521,7 +11483,7 @@
       <c r="E49" s="401" t="s">
         <v>364</v>
       </c>
-      <c r="F49" s="488"/>
+      <c r="F49" s="485"/>
       <c r="G49" s="401" t="s">
         <v>379</v>
       </c>
@@ -11573,7 +11535,7 @@
       <c r="E50" s="404" t="s">
         <v>90</v>
       </c>
-      <c r="F50" s="488"/>
+      <c r="F50" s="485"/>
       <c r="G50" s="404" t="s">
         <v>208</v>
       </c>
@@ -11625,7 +11587,7 @@
       <c r="E51" s="407" t="s">
         <v>367</v>
       </c>
-      <c r="F51" s="488"/>
+      <c r="F51" s="485"/>
       <c r="G51" s="407" t="s">
         <v>506</v>
       </c>
@@ -11727,7 +11689,7 @@
       <c r="E53" s="413" t="s">
         <v>506</v>
       </c>
-      <c r="F53" s="488"/>
+      <c r="F53" s="485"/>
       <c r="G53" s="413" t="s">
         <v>506</v>
       </c>
@@ -11777,7 +11739,7 @@
       <c r="E54" s="416" t="s">
         <v>506</v>
       </c>
-      <c r="F54" s="488"/>
+      <c r="F54" s="485"/>
       <c r="G54" s="416" t="s">
         <v>506</v>
       </c>
@@ -11827,7 +11789,7 @@
       <c r="E55" s="419" t="s">
         <v>482</v>
       </c>
-      <c r="F55" s="488"/>
+      <c r="F55" s="485"/>
       <c r="G55" s="419" t="s">
         <v>483</v>
       </c>
@@ -11877,7 +11839,7 @@
       <c r="E56" s="422" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="488"/>
+      <c r="F56" s="485"/>
       <c r="G56" s="422" t="s">
         <v>486</v>
       </c>
@@ -11979,7 +11941,7 @@
       <c r="E58" s="428" t="s">
         <v>510</v>
       </c>
-      <c r="F58" s="488"/>
+      <c r="F58" s="485"/>
       <c r="G58" s="428" t="s">
         <v>511</v>
       </c>
@@ -12129,7 +12091,7 @@
       <c r="E61" s="437" t="s">
         <v>519</v>
       </c>
-      <c r="F61" s="488"/>
+      <c r="F61" s="485"/>
       <c r="G61" s="437" t="s">
         <v>520</v>
       </c>
@@ -12283,7 +12245,7 @@
       <c r="E64" s="446" t="s">
         <v>525</v>
       </c>
-      <c r="F64" s="488"/>
+      <c r="F64" s="485"/>
       <c r="G64" s="446" t="s">
         <v>526</v>
       </c>
@@ -12333,7 +12295,7 @@
       <c r="E65" s="449" t="s">
         <v>86</v>
       </c>
-      <c r="F65" s="488"/>
+      <c r="F65" s="485"/>
       <c r="G65" s="449" t="s">
         <v>531</v>
       </c>
@@ -12385,7 +12347,7 @@
       <c r="E66" s="452" t="s">
         <v>297</v>
       </c>
-      <c r="F66" s="488"/>
+      <c r="F66" s="485"/>
       <c r="G66" s="452" t="s">
         <v>534</v>
       </c>
@@ -12435,7 +12397,7 @@
       <c r="E67" s="455" t="s">
         <v>135</v>
       </c>
-      <c r="F67" s="488"/>
+      <c r="F67" s="485"/>
       <c r="G67" s="455" t="s">
         <v>535</v>
       </c>
@@ -12485,7 +12447,7 @@
       <c r="E68" s="458" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="488"/>
+      <c r="F68" s="485"/>
       <c r="G68" s="458" t="s">
         <v>536</v>
       </c>
@@ -12587,7 +12549,7 @@
       <c r="E70" s="464" t="s">
         <v>540</v>
       </c>
-      <c r="F70" s="488"/>
+      <c r="F70" s="485"/>
       <c r="G70" s="464" t="s">
         <v>541</v>
       </c>
@@ -12637,7 +12599,7 @@
       <c r="E71" s="467" t="s">
         <v>554</v>
       </c>
-      <c r="F71" s="488"/>
+      <c r="F71" s="485"/>
       <c r="G71" s="467" t="s">
         <v>555</v>
       </c>
@@ -12739,7 +12701,7 @@
       <c r="E73" s="473" t="s">
         <v>46</v>
       </c>
-      <c r="F73" s="488"/>
+      <c r="F73" s="485"/>
       <c r="G73" s="473" t="s">
         <v>533</v>
       </c>
@@ -12789,7 +12751,7 @@
       <c r="E74" s="476" t="s">
         <v>567</v>
       </c>
-      <c r="F74" s="488"/>
+      <c r="F74" s="485"/>
       <c r="G74" s="476" t="s">
         <v>568</v>
       </c>
@@ -12841,7 +12803,7 @@
       <c r="E75" s="479" t="s">
         <v>575</v>
       </c>
-      <c r="F75" s="488"/>
+      <c r="F75" s="485"/>
       <c r="G75" s="479" t="s">
         <v>576</v>
       </c>
@@ -12891,7 +12853,7 @@
       <c r="E76" s="482" t="s">
         <v>575</v>
       </c>
-      <c r="F76" s="488"/>
+      <c r="F76" s="485"/>
       <c r="G76" s="482" t="s">
         <v>578</v>
       </c>
@@ -12927,32 +12889,32 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="485" t="s">
-        <v>506</v>
+        <v>195</v>
       </c>
       <c r="B77" s="485" t="s">
-        <v>506</v>
+        <v>229</v>
       </c>
       <c r="C77" s="485" t="s">
-        <v>506</v>
+        <v>195</v>
       </c>
       <c r="D77" s="485" t="s">
         <v>506</v>
       </c>
       <c r="E77" s="485" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="485"/>
+      <c r="G77" s="485" t="s">
         <v>585</v>
       </c>
-      <c r="F77" s="488"/>
-      <c r="G77" s="485" t="s">
-        <v>586</v>
-      </c>
       <c r="H77" s="485" t="s">
-        <v>587</v>
+        <v>354</v>
       </c>
       <c r="I77" s="486" t="s">
-        <v>582</v>
+        <v>423</v>
       </c>
       <c r="J77" s="486" t="s">
-        <v>581</v>
+        <v>338</v>
       </c>
       <c r="K77" s="486" t="s">
         <v>334</v>
@@ -12960,13 +12922,15 @@
       <c r="L77" s="486"/>
       <c r="M77" s="486"/>
       <c r="N77" s="486"/>
-      <c r="O77" s="487"/>
+      <c r="O77" s="487">
+        <v>43164</v>
+      </c>
       <c r="P77" s="487"/>
       <c r="Q77" s="485" t="s">
         <v>506</v>
       </c>
       <c r="R77" s="485" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="S77" s="486" t="s">
         <v>506</v>
@@ -12977,52 +12941,44 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="488" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="B78" s="488" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="C78" s="488" t="s">
-        <v>195</v>
-      </c>
-      <c r="D78" s="488" t="s">
-        <v>506</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D78" s="488"/>
       <c r="E78" s="488" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="F78" s="488"/>
       <c r="G78" s="488" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="H78" s="488" t="s">
-        <v>354</v>
+        <v>271</v>
       </c>
       <c r="I78" s="489" t="s">
-        <v>423</v>
+        <v>24</v>
       </c>
       <c r="J78" s="489" t="s">
-        <v>338</v>
+        <v>599</v>
       </c>
       <c r="K78" s="489" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="L78" s="489"/>
       <c r="M78" s="489"/>
       <c r="N78" s="489"/>
       <c r="O78" s="490">
-        <v>43164</v>
+        <v>43166</v>
       </c>
       <c r="P78" s="490"/>
-      <c r="Q78" s="488" t="s">
-        <v>506</v>
-      </c>
-      <c r="R78" s="488" t="s">
-        <v>579</v>
-      </c>
-      <c r="S78" s="489" t="s">
-        <v>506</v>
-      </c>
+      <c r="Q78" s="488"/>
+      <c r="R78" s="488"/>
+      <c r="S78" s="489"/>
       <c r="T78" s="489" t="s">
         <v>530</v>
       </c>
@@ -13039,23 +12995,23 @@
       </c>
       <c r="D79" s="491"/>
       <c r="E79" s="491" t="s">
-        <v>87</v>
-      </c>
-      <c r="F79" s="491"/>
+        <v>602</v>
+      </c>
+      <c r="F79" s="494"/>
       <c r="G79" s="491" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H79" s="491" t="s">
-        <v>271</v>
+        <v>381</v>
       </c>
       <c r="I79" s="492" t="s">
-        <v>24</v>
+        <v>600</v>
       </c>
       <c r="J79" s="492" t="s">
-        <v>605</v>
+        <v>385</v>
       </c>
       <c r="K79" s="492" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="L79" s="492"/>
       <c r="M79" s="492"/>
@@ -13066,37 +13022,39 @@
       <c r="P79" s="493"/>
       <c r="Q79" s="491"/>
       <c r="R79" s="491"/>
-      <c r="S79" s="492"/>
+      <c r="S79" s="492" t="s">
+        <v>529</v>
+      </c>
       <c r="T79" s="492" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="494" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="B80" s="494" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="C80" s="494" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="D80" s="494"/>
       <c r="E80" s="494" t="s">
-        <v>608</v>
-      </c>
-      <c r="F80" s="497"/>
+        <v>479</v>
+      </c>
+      <c r="F80" s="494"/>
       <c r="G80" s="494" t="s">
-        <v>609</v>
+        <v>480</v>
       </c>
       <c r="H80" s="494" t="s">
-        <v>381</v>
+        <v>481</v>
       </c>
       <c r="I80" s="495" t="s">
-        <v>606</v>
+        <v>401</v>
       </c>
       <c r="J80" s="495" t="s">
-        <v>385</v>
+        <v>475</v>
       </c>
       <c r="K80" s="495" t="s">
         <v>329</v>
@@ -13110,54 +13068,8 @@
       <c r="P80" s="496"/>
       <c r="Q80" s="494"/>
       <c r="R80" s="494"/>
-      <c r="S80" s="495" t="s">
-        <v>529</v>
-      </c>
+      <c r="S80" s="495"/>
       <c r="T80" s="495" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="497" t="s">
-        <v>195</v>
-      </c>
-      <c r="B81" s="497" t="s">
-        <v>229</v>
-      </c>
-      <c r="C81" s="497" t="s">
-        <v>195</v>
-      </c>
-      <c r="D81" s="497"/>
-      <c r="E81" s="497" t="s">
-        <v>479</v>
-      </c>
-      <c r="F81" s="497"/>
-      <c r="G81" s="497" t="s">
-        <v>480</v>
-      </c>
-      <c r="H81" s="497" t="s">
-        <v>481</v>
-      </c>
-      <c r="I81" s="498" t="s">
-        <v>401</v>
-      </c>
-      <c r="J81" s="498" t="s">
-        <v>475</v>
-      </c>
-      <c r="K81" s="498" t="s">
-        <v>329</v>
-      </c>
-      <c r="L81" s="498"/>
-      <c r="M81" s="498"/>
-      <c r="N81" s="498"/>
-      <c r="O81" s="499">
-        <v>43166</v>
-      </c>
-      <c r="P81" s="499"/>
-      <c r="Q81" s="497"/>
-      <c r="R81" s="497"/>
-      <c r="S81" s="498"/>
-      <c r="T81" s="498" t="s">
         <v>551</v>
       </c>
     </row>
@@ -13293,7 +13205,6 @@
     <hyperlink ref="J78" r:id="rId128"/>
     <hyperlink ref="J79" r:id="rId129"/>
     <hyperlink ref="J80" r:id="rId130"/>
-    <hyperlink ref="J81" r:id="rId131"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonarLysaFX/src/resources/Suivi_Quality_GateTest.xlsx
+++ b/SonarLysaFX/src/resources/Suivi_Quality_GateTest.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="605">
   <si>
     <t>Edition</t>
   </si>
@@ -5370,8 +5370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5397,7 +5397,7 @@
     <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
@@ -5458,8 +5458,11 @@
       <c r="T1" s="229" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U1" s="229" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
         <v>183</v>
       </c>
@@ -5511,7 +5514,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>183</v>
       </c>
@@ -5561,7 +5564,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>183</v>
       </c>
@@ -5613,7 +5616,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>183</v>
       </c>
@@ -5663,7 +5666,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>139</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>183</v>
       </c>
@@ -5765,7 +5768,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>236</v>
       </c>
@@ -5815,7 +5818,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>139</v>
       </c>
@@ -5865,7 +5868,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
         <v>159</v>
       </c>
@@ -5915,7 +5918,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>183</v>
       </c>
@@ -5967,7 +5970,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>493</v>
       </c>
@@ -6019,7 +6022,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>159</v>
       </c>
@@ -6069,7 +6072,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>183</v>
       </c>
@@ -6119,7 +6122,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>139</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>183</v>
       </c>
@@ -9057,11 +9060,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9153,7 +9155,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="230" t="s">
         <v>134</v>
       </c>
@@ -9207,7 +9209,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="236" t="s">
         <v>139</v>
       </c>
@@ -9261,7 +9263,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="239" t="s">
         <v>139</v>
       </c>
@@ -9315,7 +9317,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="242" t="s">
         <v>139</v>
       </c>
@@ -9369,7 +9371,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="245" t="s">
         <v>139</v>
       </c>
@@ -9423,7 +9425,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="248" t="s">
         <v>139</v>
       </c>
@@ -9475,7 +9477,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="251" t="s">
         <v>139</v>
       </c>
@@ -9529,7 +9531,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="254" t="s">
         <v>139</v>
       </c>
@@ -9581,7 +9583,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="257" t="s">
         <v>568</v>
       </c>
@@ -9633,7 +9635,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="260" t="s">
         <v>159</v>
       </c>
@@ -9687,7 +9689,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="263" t="s">
         <v>183</v>
       </c>
@@ -9739,7 +9741,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="266" t="s">
         <v>183</v>
       </c>
@@ -9791,7 +9793,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="269" t="s">
         <v>183</v>
       </c>
@@ -9843,7 +9845,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="278" t="s">
         <v>183</v>
       </c>
@@ -9895,7 +9897,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="284" t="s">
         <v>183</v>
       </c>
@@ -9947,7 +9949,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="287" t="s">
         <v>183</v>
       </c>
@@ -9999,7 +10001,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="290" t="s">
         <v>183</v>
       </c>
@@ -10051,7 +10053,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="299" t="s">
         <v>183</v>
       </c>
@@ -10105,7 +10107,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="302" t="s">
         <v>568</v>
       </c>
@@ -10155,7 +10157,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="314" t="s">
         <v>236</v>
       </c>
@@ -10209,7 +10211,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="317" t="s">
         <v>236</v>
       </c>
@@ -10261,7 +10263,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="320" t="s">
         <v>493</v>
       </c>
@@ -10313,7 +10315,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="323" t="s">
         <v>493</v>
       </c>
@@ -10367,7 +10369,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="329" t="s">
         <v>493</v>
       </c>
@@ -10417,7 +10419,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="332" t="s">
         <v>493</v>
       </c>
@@ -10471,7 +10473,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="335" t="s">
         <v>183</v>
       </c>
@@ -10523,7 +10525,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="338" t="s">
         <v>493</v>
       </c>
@@ -10573,7 +10575,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="341" t="s">
         <v>568</v>
       </c>
@@ -10625,7 +10627,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="344" t="s">
         <v>493</v>
       </c>
@@ -10675,7 +10677,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="347" t="s">
         <v>183</v>
       </c>
@@ -10725,7 +10727,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="350" t="s">
         <v>183</v>
       </c>
@@ -10773,7 +10775,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="353" t="s">
         <v>493</v>
       </c>
@@ -10823,7 +10825,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="356" t="s">
         <v>493</v>
       </c>
@@ -10871,7 +10873,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="359" t="s">
         <v>493</v>
       </c>
@@ -10921,7 +10923,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="362" t="s">
         <v>139</v>
       </c>
@@ -10973,7 +10975,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="365" t="s">
         <v>159</v>
       </c>
@@ -11025,7 +11027,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="368" t="s">
         <v>568</v>
       </c>
@@ -11077,7 +11079,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="371" t="s">
         <v>493</v>
       </c>
@@ -11129,7 +11131,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="374" t="s">
         <v>493</v>
       </c>
@@ -11181,7 +11183,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="377" t="s">
         <v>183</v>
       </c>
@@ -11233,7 +11235,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="380" t="s">
         <v>183</v>
       </c>
@@ -11285,7 +11287,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="383" t="s">
         <v>139</v>
       </c>
@@ -11337,7 +11339,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="386" t="s">
         <v>139</v>
       </c>
@@ -11389,7 +11391,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="389" t="s">
         <v>493</v>
       </c>
@@ -11441,7 +11443,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="392" t="s">
         <v>493</v>
       </c>
@@ -11493,7 +11495,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="395" t="s">
         <v>493</v>
       </c>
@@ -11545,7 +11547,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="398" t="s">
         <v>159</v>
       </c>
@@ -11597,7 +11599,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="401" t="s">
         <v>367</v>
       </c>
@@ -11701,7 +11703,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="407" t="s">
         <v>134</v>
       </c>
@@ -11751,7 +11753,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="410" t="s">
         <v>139</v>
       </c>
@@ -11803,7 +11805,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="413" t="s">
         <v>493</v>
       </c>
@@ -11853,7 +11855,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="416" t="s">
         <v>493</v>
       </c>
@@ -11903,7 +11905,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="419" t="s">
         <v>183</v>
       </c>
@@ -11953,7 +11955,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="422" t="s">
         <v>174</v>
       </c>
@@ -12005,7 +12007,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="425" t="s">
         <v>243</v>
       </c>
@@ -12055,7 +12057,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="428" t="s">
         <v>159</v>
       </c>
@@ -12105,7 +12107,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="431" t="s">
         <v>243</v>
       </c>
@@ -12155,7 +12157,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="434" t="s">
         <v>367</v>
       </c>
@@ -12205,7 +12207,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="437" t="s">
         <v>183</v>
       </c>
@@ -12255,7 +12257,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="440" t="s">
         <v>139</v>
       </c>
@@ -12307,7 +12309,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="443" t="s">
         <v>139</v>
       </c>
@@ -12359,7 +12361,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="446" t="s">
         <v>493</v>
       </c>
@@ -12409,7 +12411,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="449" t="s">
         <v>139</v>
       </c>
@@ -12461,7 +12463,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="452" t="s">
         <v>367</v>
       </c>
@@ -12511,7 +12513,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="455" t="s">
         <v>139</v>
       </c>
@@ -12561,7 +12563,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="458" t="s">
         <v>183</v>
       </c>
@@ -12611,7 +12613,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="461" t="s">
         <v>159</v>
       </c>
@@ -12663,7 +12665,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="464" t="s">
         <v>183</v>
       </c>
@@ -12713,7 +12715,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="467" t="s">
         <v>183</v>
       </c>
@@ -12763,7 +12765,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="470" t="s">
         <v>493</v>
       </c>
@@ -12815,7 +12817,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="473" t="s">
         <v>183</v>
       </c>
@@ -12865,7 +12867,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="476" t="s">
         <v>493</v>
       </c>
@@ -12917,7 +12919,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="479" t="s">
         <v>493</v>
       </c>
@@ -12967,7 +12969,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="482" t="s">
         <v>493</v>
       </c>
@@ -13017,7 +13019,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="485" t="s">
         <v>183</v>
       </c>
@@ -13069,7 +13071,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="488" t="s">
         <v>236</v>
       </c>
@@ -13113,7 +13115,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="491" t="s">
         <v>236</v>
       </c>
@@ -13159,7 +13161,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="494" t="s">
         <v>183</v>
       </c>
@@ -13204,13 +13206,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H80">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="FOUQUET, Valerie"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="H1:H80"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
     <hyperlink ref="L2" r:id="rId2" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298842" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=298842"/>
